--- a/ExPECA-HW-Discovery.xlsx
+++ b/ExPECA-HW-Discovery.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmos/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmos/Desktop/untitled folder 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4281F312-74D3-7F4E-BB49-8FF02B17D5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF44AE9F-396D-074F-9498-D75C188AB566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3780" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SDRs" sheetId="6" r:id="rId1"/>
+    <sheet name="SDRs" sheetId="8" r:id="rId1"/>
     <sheet name="Adv Routers" sheetId="7" r:id="rId2"/>
     <sheet name="Worker Nodes" sheetId="2" r:id="rId3"/>
     <sheet name="Openstack Server" sheetId="4" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="462">
   <si>
     <t>Dell PowerEdge R750xs</t>
   </si>
@@ -783,12 +783,6 @@
     <t>te2/0/13</t>
   </si>
   <si>
-    <t>patch-panel-02.port-??</t>
-  </si>
-  <si>
-    <t>MAC</t>
-  </si>
-  <si>
     <t>MIDDLE CONNECTIONS *</t>
   </si>
   <si>
@@ -840,9 +834,6 @@
     <t>ICR-4453 5G Router</t>
   </si>
   <si>
-    <t>FIRMWARE</t>
-  </si>
-  <si>
     <t>6.2.9 (2021-04-07)</t>
   </si>
   <si>
@@ -864,18 +855,9 @@
     <t>SIMCARD</t>
   </si>
   <si>
-    <t>kth-sim001</t>
-  </si>
-  <si>
     <t>poe-switch-03.port-??</t>
   </si>
   <si>
-    <t>eth1</t>
-  </si>
-  <si>
-    <t>eth3</t>
-  </si>
-  <si>
     <t>10.42.3.1/24</t>
   </si>
   <si>
@@ -924,9 +906,6 @@
     <t>00:0A:14:8E:4E:57</t>
   </si>
   <si>
-    <t>tenant-switch-??</t>
-  </si>
-  <si>
     <t>TYPE</t>
   </si>
   <si>
@@ -1210,6 +1189,231 @@
   </si>
   <si>
     <t>SEGMENT ID</t>
+  </si>
+  <si>
+    <t>P02418389h</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>USER *</t>
+  </si>
+  <si>
+    <t>PASS *</t>
+  </si>
+  <si>
+    <t>P02418421h</t>
+  </si>
+  <si>
+    <t>P02516919h</t>
+  </si>
+  <si>
+    <t>P02517057h</t>
+  </si>
+  <si>
+    <t>P02516901h</t>
+  </si>
+  <si>
+    <t>P02516851h</t>
+  </si>
+  <si>
+    <t>P02516828h</t>
+  </si>
+  <si>
+    <t>P02516992h</t>
+  </si>
+  <si>
+    <t>EXPECA-003</t>
+  </si>
+  <si>
+    <t>EXPECA-001</t>
+  </si>
+  <si>
+    <t>patch-panel-01.port-14, poe-switch-01.port-05, poe-switch-01.port-06</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-12</t>
+  </si>
+  <si>
+    <t>patch-panel-01.port-22, poe-switch-02.port-05, poe-switch-02.port-06</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-17</t>
+  </si>
+  <si>
+    <t>patch-panel-01.port-17, poe-switch-02.port-04, poe-switch-02.port-07</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-15</t>
+  </si>
+  <si>
+    <t>patch-panel-01.port-08, poe-switch-01.port-04, poe-switch-01.port-07</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-08</t>
+  </si>
+  <si>
+    <t>patch-panel-01.port-06, poe-switch-01.port-03, poe-switch-01.port-08</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-06</t>
+  </si>
+  <si>
+    <t>patch-panel-01.port-11, poe-switch-01.port-02, poe-switch-01.port-09</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-10</t>
+  </si>
+  <si>
+    <t>patch-panel-01.port-01, poe-switch-01.port-01, poe-switch-01.port-10</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-03</t>
+  </si>
+  <si>
+    <t>patch-panel-01.port-32, poe-switch-02.port-03, poe-switch-02.port-08</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-23</t>
+  </si>
+  <si>
+    <t>patch-panel-01.port-25, poe-switch-02.port-02, poe-switch-02.port-09</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-19</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-01</t>
+  </si>
+  <si>
+    <t>5G IP Address</t>
+  </si>
+  <si>
+    <t>172.16.0.8</t>
+  </si>
+  <si>
+    <t>EXPECA-000</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>te2/0/17</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-09</t>
+  </si>
+  <si>
+    <t>172.16.0.88</t>
+  </si>
+  <si>
+    <t>te2/0/18</t>
+  </si>
+  <si>
+    <t>10.42.3.2/24</t>
+  </si>
+  <si>
+    <t>10.42.3.3/24</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-20</t>
+  </si>
+  <si>
+    <t>te2/0/19</t>
+  </si>
+  <si>
+    <t>EXPECA-005</t>
+  </si>
+  <si>
+    <t>172.16.0.40</t>
+  </si>
+  <si>
+    <t>EXPECA-011</t>
+  </si>
+  <si>
+    <t>EXPECA-006</t>
+  </si>
+  <si>
+    <t>172.16.0.96</t>
+  </si>
+  <si>
+    <t>10.42.3.4/24</t>
+  </si>
+  <si>
+    <t>10.42.3.5/24</t>
+  </si>
+  <si>
+    <t>172.16.0.64</t>
+  </si>
+  <si>
+    <t>EXPECA-002</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-11 (REVERSE)</t>
+  </si>
+  <si>
+    <t>te2/0/20</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-14</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-13  (REVERSE)</t>
+  </si>
+  <si>
+    <t>te2/0/21</t>
+  </si>
+  <si>
+    <t>10.42.3.6/24</t>
+  </si>
+  <si>
+    <t>172.16.0.72</t>
+  </si>
+  <si>
+    <t>te2/0/22</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-18</t>
+  </si>
+  <si>
+    <t>10.42.3.7/24</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-22</t>
+  </si>
+  <si>
+    <t>te3/0/14</t>
+  </si>
+  <si>
+    <t>172.16.0.104</t>
+  </si>
+  <si>
+    <t>EXPECA-007</t>
+  </si>
+  <si>
+    <t>172.16.0.56</t>
+  </si>
+  <si>
+    <t>10.42.3.8/24</t>
+  </si>
+  <si>
+    <t>eth2</t>
+  </si>
+  <si>
+    <t>te3/0/15</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-16</t>
+  </si>
+  <si>
+    <t>SERIAL *</t>
+  </si>
+  <si>
+    <t>FIRMWARE *</t>
+  </si>
+  <si>
+    <t>2.0.1</t>
   </si>
 </sst>
 </file>
@@ -1689,11 +1893,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DE3AB0-D291-534C-AA81-E7430FF9C657}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DF0E2B-725B-3247-9FD1-11D5F10AA821}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1741,7 +1945,7 @@
         <v>232</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>238</v>
@@ -1753,7 +1957,7 @@
         <v>235</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>267</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1767,7 +1971,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -1782,7 +1986,7 @@
         <v>152</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>153</v>
@@ -1791,7 +1995,7 @@
         <v>154</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1799,13 +2003,13 @@
         <v>242</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
@@ -1843,7 +2047,7 @@
         <v>246</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
@@ -1867,7 +2071,7 @@
         <v>69</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>251</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1875,13 +2079,13 @@
         <v>244</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>19</v>
@@ -1933,25 +2137,25 @@
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>232</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>267</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1965,7 +2169,7 @@
         <v>217</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>17</v>
@@ -1980,7 +2184,7 @@
         <v>152</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>153</v>
@@ -1989,7 +2193,7 @@
         <v>154</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1997,13 +2201,13 @@
         <v>242</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>19</v>
@@ -2015,7 +2219,7 @@
         <v>66</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="I15" s="3">
         <v>102</v>
@@ -2027,7 +2231,7 @@
         <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>267</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2035,13 +2239,13 @@
         <v>243</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>20</v>
@@ -2053,7 +2257,7 @@
         <v>179</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="I16" s="3">
         <v>103</v>
@@ -2065,7 +2269,7 @@
         <v>69</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>267</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2073,13 +2277,13 @@
         <v>244</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>19</v>
@@ -2091,7 +2295,7 @@
         <v>66</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="I17" s="3">
         <v>102</v>
@@ -2103,7 +2307,7 @@
         <v>69</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>267</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -2134,25 +2338,25 @@
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>232</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>267</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2166,7 +2370,7 @@
         <v>217</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>17</v>
@@ -2181,7 +2385,7 @@
         <v>152</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>153</v>
@@ -2190,7 +2394,7 @@
         <v>154</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2198,13 +2402,13 @@
         <v>242</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>19</v>
@@ -2216,7 +2420,7 @@
         <v>66</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I25" s="3">
         <v>108</v>
@@ -2228,7 +2432,7 @@
         <v>69</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>267</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2236,13 +2440,13 @@
         <v>243</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>20</v>
@@ -2254,7 +2458,7 @@
         <v>179</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="I26" s="3">
         <v>109</v>
@@ -2266,7 +2470,7 @@
         <v>69</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>267</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2274,13 +2478,13 @@
         <v>244</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>19</v>
@@ -2292,7 +2496,7 @@
         <v>66</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I27" s="3">
         <v>108</v>
@@ -2304,7 +2508,7 @@
         <v>69</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>267</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2337,25 +2541,25 @@
     </row>
     <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>267</v>
+        <v>461</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2379,14 +2583,14 @@
       <c r="A34" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>17</v>
@@ -2401,7 +2605,7 @@
         <v>152</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>153</v>
@@ -2410,7 +2614,7 @@
         <v>154</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2418,13 +2622,13 @@
         <v>242</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>19</v>
@@ -2436,7 +2640,7 @@
         <v>66</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="I35" s="3">
         <v>110</v>
@@ -2448,7 +2652,7 @@
         <v>69</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>267</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2456,13 +2660,13 @@
         <v>243</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>20</v>
@@ -2474,7 +2678,7 @@
         <v>195</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="I36" s="3">
         <v>111</v>
@@ -2486,7 +2690,7 @@
         <v>69</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>267</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2494,13 +2698,13 @@
         <v>244</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>19</v>
@@ -2512,7 +2716,7 @@
         <v>66</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="I37" s="3">
         <v>110</v>
@@ -2524,7 +2728,7 @@
         <v>69</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>267</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2555,25 +2759,25 @@
     </row>
     <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>267</v>
+        <v>461</v>
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
@@ -2599,14 +2803,14 @@
       <c r="A44" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>17</v>
@@ -2621,7 +2825,7 @@
         <v>152</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>153</v>
@@ -2630,7 +2834,7 @@
         <v>154</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2638,13 +2842,13 @@
         <v>242</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>19</v>
@@ -2656,7 +2860,7 @@
         <v>66</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="I45" s="3">
         <v>112</v>
@@ -2668,7 +2872,7 @@
         <v>69</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>267</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2676,13 +2880,13 @@
         <v>243</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>20</v>
@@ -2694,7 +2898,7 @@
         <v>195</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="I46" s="3">
         <v>113</v>
@@ -2706,7 +2910,7 @@
         <v>69</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>267</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2714,13 +2918,13 @@
         <v>244</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>19</v>
@@ -2732,7 +2936,7 @@
         <v>66</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="I47" s="3">
         <v>112</v>
@@ -2744,7 +2948,7 @@
         <v>69</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>267</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2775,25 +2979,25 @@
     </row>
     <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>267</v>
+        <v>461</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
@@ -2819,14 +3023,14 @@
       <c r="A54" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>17</v>
@@ -2841,7 +3045,7 @@
         <v>152</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>153</v>
@@ -2850,7 +3054,7 @@
         <v>154</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2858,13 +3062,13 @@
         <v>242</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>19</v>
@@ -2876,7 +3080,7 @@
         <v>66</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="I55" s="3">
         <v>114</v>
@@ -2888,7 +3092,7 @@
         <v>69</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>267</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2896,13 +3100,13 @@
         <v>243</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>20</v>
@@ -2914,7 +3118,7 @@
         <v>195</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I56" s="5">
         <v>115</v>
@@ -2926,7 +3130,7 @@
         <v>69</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>267</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2934,13 +3138,13 @@
         <v>244</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>19</v>
@@ -2952,7 +3156,7 @@
         <v>66</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="I57" s="3">
         <v>114</v>
@@ -2964,7 +3168,7 @@
         <v>69</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>267</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2995,25 +3199,25 @@
     </row>
     <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>267</v>
+        <v>461</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
@@ -3039,14 +3243,14 @@
       <c r="A64" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>17</v>
@@ -3061,7 +3265,7 @@
         <v>152</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>153</v>
@@ -3070,7 +3274,7 @@
         <v>154</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3078,13 +3282,13 @@
         <v>242</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>19</v>
@@ -3096,7 +3300,7 @@
         <v>66</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="I65" s="3">
         <v>116</v>
@@ -3108,7 +3312,7 @@
         <v>69</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>267</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3116,13 +3320,13 @@
         <v>243</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>20</v>
@@ -3134,7 +3338,7 @@
         <v>196</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="I66" s="3">
         <v>117</v>
@@ -3146,7 +3350,7 @@
         <v>69</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>267</v>
+        <v>407</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3154,13 +3358,13 @@
         <v>244</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>19</v>
@@ -3172,7 +3376,7 @@
         <v>66</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="I67" s="3">
         <v>116</v>
@@ -3184,7 +3388,7 @@
         <v>69</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>267</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3215,25 +3419,25 @@
     </row>
     <row r="72" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>267</v>
+        <v>461</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -3257,14 +3461,14 @@
       <c r="A74" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>17</v>
@@ -3279,7 +3483,7 @@
         <v>152</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>153</v>
@@ -3288,7 +3492,7 @@
         <v>154</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3296,13 +3500,13 @@
         <v>242</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>19</v>
@@ -3314,7 +3518,7 @@
         <v>66</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I75" s="3">
         <v>118</v>
@@ -3326,7 +3530,7 @@
         <v>69</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3334,13 +3538,13 @@
         <v>243</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>20</v>
@@ -3352,7 +3556,7 @@
         <v>196</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="I76" s="3">
         <v>119</v>
@@ -3364,7 +3568,7 @@
         <v>69</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>267</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3372,13 +3576,13 @@
         <v>244</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>19</v>
@@ -3390,7 +3594,7 @@
         <v>66</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I77" s="3">
         <v>118</v>
@@ -3402,7 +3606,7 @@
         <v>69</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3433,25 +3637,25 @@
     </row>
     <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>267</v>
+        <v>461</v>
       </c>
       <c r="H82" s="16"/>
       <c r="I82" s="16"/>
@@ -3477,14 +3681,14 @@
       <c r="A84" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>17</v>
@@ -3499,7 +3703,7 @@
         <v>152</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>153</v>
@@ -3508,7 +3712,7 @@
         <v>154</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3516,16 +3720,16 @@
         <v>242</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F85" s="3">
         <v>1500</v>
@@ -3534,7 +3738,7 @@
         <v>66</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I85" s="3">
         <v>104</v>
@@ -3546,7 +3750,7 @@
         <v>69</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>267</v>
+        <v>402</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3554,13 +3758,13 @@
         <v>243</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>20</v>
@@ -3572,7 +3776,7 @@
         <v>196</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I86" s="5">
         <v>105</v>
@@ -3584,7 +3788,7 @@
         <v>69</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>267</v>
+        <v>403</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3592,13 +3796,13 @@
         <v>244</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>19</v>
@@ -3610,7 +3814,7 @@
         <v>66</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I87" s="3">
         <v>104</v>
@@ -3622,7 +3826,7 @@
         <v>69</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>267</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3653,25 +3857,25 @@
     </row>
     <row r="92" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>267</v>
+        <v>461</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -3695,14 +3899,14 @@
       <c r="A94" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>17</v>
@@ -3717,7 +3921,7 @@
         <v>152</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J94" s="7" t="s">
         <v>153</v>
@@ -3726,7 +3930,7 @@
         <v>154</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3734,16 +3938,16 @@
         <v>242</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F95" s="3">
         <v>1500</v>
@@ -3752,7 +3956,7 @@
         <v>66</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I95" s="3">
         <v>120</v>
@@ -3764,7 +3968,7 @@
         <v>69</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>267</v>
+        <v>400</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3772,13 +3976,13 @@
         <v>243</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>20</v>
@@ -3790,7 +3994,7 @@
         <v>196</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="I96" s="3">
         <v>121</v>
@@ -3802,7 +4006,7 @@
         <v>69</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>267</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3810,13 +4014,13 @@
         <v>244</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>19</v>
@@ -3828,7 +4032,7 @@
         <v>66</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I97" s="3">
         <v>120</v>
@@ -3840,7 +4044,7 @@
         <v>69</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>267</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3853,8 +4057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026BCBCE-4CBD-7246-9A76-5F67393CE992}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3865,7 +4069,7 @@
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="24.5" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="8" width="17.83203125" customWidth="1"/>
+    <col min="7" max="9" width="17.83203125" customWidth="1"/>
     <col min="11" max="11" width="25.6640625" customWidth="1"/>
     <col min="12" max="12" width="56.6640625" customWidth="1"/>
   </cols>
@@ -3880,34 +4084,52 @@
       <c r="C1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>270</v>
+      <c r="D1" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>460</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>278</v>
+        <v>421</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3925,13 +4147,13 @@
         <v>241</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -3943,33 +4165,33 @@
         <v>151</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>152</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>154</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
@@ -3981,10 +4203,10 @@
         <v>65</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>267</v>
+        <v>422</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>167</v>
@@ -3993,21 +4215,21 @@
         <v>68</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>281</v>
+        <v>456</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
@@ -4016,13 +4238,13 @@
         <v>9000</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>267</v>
+        <v>179</v>
+      </c>
+      <c r="H6" s="3">
+        <v>130</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>267</v>
+        <v>423</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>164</v>
@@ -4031,7 +4253,7 @@
         <v>69</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>251</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4044,34 +4266,52 @@
       <c r="C10" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>270</v>
+      <c r="D10" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>460</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4089,13 +4329,13 @@
         <v>241</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>17</v>
@@ -4107,33 +4347,33 @@
         <v>151</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>152</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>154</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>19</v>
@@ -4145,10 +4385,10 @@
         <v>65</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>267</v>
+        <v>422</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>167</v>
@@ -4157,21 +4397,21 @@
         <v>68</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>267</v>
+        <v>427</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>20</v>
@@ -4180,13 +4420,13 @@
         <v>9000</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>267</v>
+        <v>179</v>
+      </c>
+      <c r="H15" s="3">
+        <v>131</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>267</v>
+        <v>426</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>164</v>
@@ -4195,7 +4435,7 @@
         <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>251</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4208,34 +4448,52 @@
       <c r="C19" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>270</v>
+      <c r="D19" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>460</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>267</v>
+        <v>433</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -4253,13 +4511,13 @@
         <v>241</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>17</v>
@@ -4271,33 +4529,33 @@
         <v>151</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>152</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>154</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>19</v>
@@ -4309,10 +4567,10 @@
         <v>65</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>267</v>
+        <v>422</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>167</v>
@@ -4321,21 +4579,21 @@
         <v>68</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>267</v>
+        <v>428</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>20</v>
@@ -4344,13 +4602,13 @@
         <v>9000</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>267</v>
+        <v>179</v>
+      </c>
+      <c r="H24" s="3">
+        <v>132</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>267</v>
+        <v>430</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>164</v>
@@ -4359,7 +4617,7 @@
         <v>69</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>251</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4372,34 +4630,52 @@
       <c r="C28" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>270</v>
+      <c r="D28" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>460</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>267</v>
+        <v>434</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -4417,13 +4693,13 @@
         <v>241</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>17</v>
@@ -4435,33 +4711,33 @@
         <v>151</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>152</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>154</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>19</v>
@@ -4473,10 +4749,10 @@
         <v>65</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>267</v>
+        <v>422</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>167</v>
@@ -4485,21 +4761,21 @@
         <v>68</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>267</v>
+        <v>436</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>20</v>
@@ -4508,13 +4784,13 @@
         <v>9000</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>267</v>
+        <v>179</v>
+      </c>
+      <c r="H33" s="3">
+        <v>133</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>267</v>
+        <v>441</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>164</v>
@@ -4523,7 +4799,7 @@
         <v>69</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>251</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4537,43 +4813,55 @@
         <v>233</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>234</v>
+        <v>459</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+        <v>274</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
     <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+        <v>439</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>438</v>
+      </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -4596,14 +4884,14 @@
       <c r="A40" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>252</v>
+      <c r="B40" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>17</v>
@@ -4615,33 +4903,33 @@
         <v>151</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>154</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>280</v>
+        <v>265</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>19</v>
@@ -4653,10 +4941,10 @@
         <v>65</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>267</v>
+        <v>422</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>167</v>
@@ -4665,21 +4953,21 @@
         <v>68</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>267</v>
+        <v>437</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>20</v>
@@ -4688,13 +4976,13 @@
         <v>9000</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>267</v>
+        <v>179</v>
+      </c>
+      <c r="H42" s="3">
+        <v>134</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>267</v>
+        <v>444</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>164</v>
@@ -4703,7 +4991,7 @@
         <v>69</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>251</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4717,43 +5005,55 @@
         <v>233</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>234</v>
+        <v>459</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+        <v>274</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+        <v>398</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>446</v>
+      </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
@@ -4776,14 +5076,14 @@
       <c r="A49" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>252</v>
+      <c r="B49" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>17</v>
@@ -4795,33 +5095,33 @@
         <v>151</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>154</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>280</v>
+        <v>265</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>19</v>
@@ -4833,10 +5133,10 @@
         <v>65</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>267</v>
+        <v>422</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>167</v>
@@ -4845,21 +5145,21 @@
         <v>68</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>267</v>
+        <v>445</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>20</v>
@@ -4868,13 +5168,13 @@
         <v>9000</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>267</v>
+        <v>179</v>
+      </c>
+      <c r="H51" s="3">
+        <v>135</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>267</v>
+        <v>447</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>164</v>
@@ -4883,7 +5183,7 @@
         <v>69</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>251</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4897,43 +5197,55 @@
         <v>233</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>234</v>
+        <v>459</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+        <v>274</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
     </row>
     <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
+        <v>453</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>452</v>
+      </c>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
@@ -4956,14 +5268,14 @@
       <c r="A58" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>252</v>
+      <c r="B58" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>17</v>
@@ -4975,33 +5287,33 @@
         <v>151</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>154</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>280</v>
+        <v>265</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>19</v>
@@ -5013,10 +5325,10 @@
         <v>65</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>267</v>
+        <v>422</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>167</v>
@@ -5025,21 +5337,21 @@
         <v>68</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>267</v>
+        <v>449</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>20</v>
@@ -5048,13 +5360,13 @@
         <v>9000</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>267</v>
+        <v>195</v>
+      </c>
+      <c r="H60" s="3">
+        <v>136</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>267</v>
+        <v>451</v>
       </c>
       <c r="J60" s="11" t="s">
         <v>164</v>
@@ -5063,7 +5375,7 @@
         <v>69</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>251</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5077,43 +5389,55 @@
         <v>233</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>234</v>
+        <v>459</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
+        <v>274</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
     </row>
     <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
+        <v>399</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>454</v>
+      </c>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
@@ -5136,14 +5460,14 @@
       <c r="A67" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>252</v>
+      <c r="B67" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>17</v>
@@ -5155,33 +5479,33 @@
         <v>151</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>154</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>280</v>
+        <v>265</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>19</v>
@@ -5193,10 +5517,10 @@
         <v>65</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>267</v>
+        <v>422</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J68" s="11" t="s">
         <v>167</v>
@@ -5205,21 +5529,21 @@
         <v>68</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>267</v>
+        <v>455</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>20</v>
@@ -5228,13 +5552,13 @@
         <v>9000</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>267</v>
+        <v>195</v>
+      </c>
+      <c r="H69" s="3">
+        <v>137</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>267</v>
+        <v>457</v>
       </c>
       <c r="J69" s="11" t="s">
         <v>164</v>
@@ -5243,7 +5567,7 @@
         <v>69</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>251</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -5255,8 +5579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAF93FA-38E5-45F4-AB60-57ED3B3EDFB0}">
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ExPECA-HW-Discovery.xlsx
+++ b/ExPECA-HW-Discovery.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmos/Desktop/untitled folder 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmos/Downloads/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF44AE9F-396D-074F-9498-D75C188AB566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{334D1E38-503C-8D46-A48A-56051763C7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDRs" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="466">
   <si>
     <t>Dell PowerEdge R750xs</t>
   </si>
@@ -855,9 +855,6 @@
     <t>SIMCARD</t>
   </si>
   <si>
-    <t>poe-switch-03.port-??</t>
-  </si>
-  <si>
     <t>10.42.3.1/24</t>
   </si>
   <si>
@@ -1414,6 +1411,21 @@
   </si>
   <si>
     <t>2.0.1</t>
+  </si>
+  <si>
+    <t>patch-panel-01.port-09</t>
+  </si>
+  <si>
+    <t>patch-panel-01.port-12</t>
+  </si>
+  <si>
+    <t>patch-panel-01.port-26</t>
+  </si>
+  <si>
+    <t>patch-panel-02.port-29</t>
+  </si>
+  <si>
+    <t>patch-panel-01.port-15</t>
   </si>
 </sst>
 </file>
@@ -1896,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DF0E2B-725B-3247-9FD1-11D5F10AA821}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView topLeftCell="D75" zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
@@ -1957,7 +1969,7 @@
         <v>235</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1986,7 +1998,7 @@
         <v>152</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>153</v>
@@ -2003,7 +2015,7 @@
         <v>242</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>245</v>
@@ -2071,7 +2083,7 @@
         <v>69</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2079,7 +2091,7 @@
         <v>244</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>245</v>
@@ -2146,16 +2158,16 @@
         <v>265</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2184,7 +2196,7 @@
         <v>152</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>153</v>
@@ -2201,13 +2213,13 @@
         <v>242</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>19</v>
@@ -2219,7 +2231,7 @@
         <v>66</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I15" s="3">
         <v>102</v>
@@ -2231,7 +2243,7 @@
         <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2239,13 +2251,13 @@
         <v>243</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>20</v>
@@ -2257,7 +2269,7 @@
         <v>179</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I16" s="3">
         <v>103</v>
@@ -2269,7 +2281,7 @@
         <v>69</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2277,13 +2289,13 @@
         <v>244</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>19</v>
@@ -2295,7 +2307,7 @@
         <v>66</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I17" s="3">
         <v>102</v>
@@ -2307,7 +2319,7 @@
         <v>69</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -2347,16 +2359,16 @@
         <v>265</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2385,7 +2397,7 @@
         <v>152</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>153</v>
@@ -2402,13 +2414,13 @@
         <v>242</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>19</v>
@@ -2420,7 +2432,7 @@
         <v>66</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I25" s="3">
         <v>108</v>
@@ -2432,7 +2444,7 @@
         <v>69</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2440,13 +2452,13 @@
         <v>243</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>20</v>
@@ -2458,7 +2470,7 @@
         <v>179</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I26" s="3">
         <v>109</v>
@@ -2470,7 +2482,7 @@
         <v>69</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2478,13 +2490,13 @@
         <v>244</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>19</v>
@@ -2496,7 +2508,7 @@
         <v>66</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I27" s="3">
         <v>108</v>
@@ -2508,7 +2520,7 @@
         <v>69</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2550,16 +2562,16 @@
         <v>265</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2605,7 +2617,7 @@
         <v>152</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>153</v>
@@ -2622,13 +2634,13 @@
         <v>242</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>19</v>
@@ -2640,7 +2652,7 @@
         <v>66</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I35" s="3">
         <v>110</v>
@@ -2652,7 +2664,7 @@
         <v>69</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2660,13 +2672,13 @@
         <v>243</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>20</v>
@@ -2678,7 +2690,7 @@
         <v>195</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I36" s="3">
         <v>111</v>
@@ -2690,7 +2702,7 @@
         <v>69</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2698,13 +2710,13 @@
         <v>244</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>19</v>
@@ -2716,7 +2728,7 @@
         <v>66</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I37" s="3">
         <v>110</v>
@@ -2728,7 +2740,7 @@
         <v>69</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2768,16 +2780,16 @@
         <v>265</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
@@ -2825,7 +2837,7 @@
         <v>152</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>153</v>
@@ -2842,13 +2854,13 @@
         <v>242</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>19</v>
@@ -2860,7 +2872,7 @@
         <v>66</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I45" s="3">
         <v>112</v>
@@ -2872,7 +2884,7 @@
         <v>69</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2880,13 +2892,13 @@
         <v>243</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>20</v>
@@ -2898,7 +2910,7 @@
         <v>195</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I46" s="3">
         <v>113</v>
@@ -2910,7 +2922,7 @@
         <v>69</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2918,13 +2930,13 @@
         <v>244</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>19</v>
@@ -2936,7 +2948,7 @@
         <v>66</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I47" s="3">
         <v>112</v>
@@ -2948,7 +2960,7 @@
         <v>69</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2988,16 +3000,16 @@
         <v>265</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
@@ -3045,7 +3057,7 @@
         <v>152</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>153</v>
@@ -3062,13 +3074,13 @@
         <v>242</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>19</v>
@@ -3080,7 +3092,7 @@
         <v>66</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I55" s="3">
         <v>114</v>
@@ -3092,7 +3104,7 @@
         <v>69</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3100,13 +3112,13 @@
         <v>243</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>20</v>
@@ -3118,7 +3130,7 @@
         <v>195</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I56" s="5">
         <v>115</v>
@@ -3130,7 +3142,7 @@
         <v>69</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3138,13 +3150,13 @@
         <v>244</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>19</v>
@@ -3156,7 +3168,7 @@
         <v>66</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I57" s="3">
         <v>114</v>
@@ -3168,7 +3180,7 @@
         <v>69</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3208,16 +3220,16 @@
         <v>265</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
@@ -3265,7 +3277,7 @@
         <v>152</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>153</v>
@@ -3282,13 +3294,13 @@
         <v>242</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>19</v>
@@ -3300,7 +3312,7 @@
         <v>66</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I65" s="3">
         <v>116</v>
@@ -3312,7 +3324,7 @@
         <v>69</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3320,13 +3332,13 @@
         <v>243</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>20</v>
@@ -3338,7 +3350,7 @@
         <v>196</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I66" s="3">
         <v>117</v>
@@ -3350,7 +3362,7 @@
         <v>69</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3358,13 +3370,13 @@
         <v>244</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>19</v>
@@ -3376,7 +3388,7 @@
         <v>66</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I67" s="3">
         <v>116</v>
@@ -3388,7 +3400,7 @@
         <v>69</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3428,16 +3440,16 @@
         <v>265</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -3483,7 +3495,7 @@
         <v>152</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>153</v>
@@ -3500,13 +3512,13 @@
         <v>242</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>19</v>
@@ -3518,7 +3530,7 @@
         <v>66</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I75" s="3">
         <v>118</v>
@@ -3530,7 +3542,7 @@
         <v>69</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3538,13 +3550,13 @@
         <v>243</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>20</v>
@@ -3556,7 +3568,7 @@
         <v>196</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I76" s="3">
         <v>119</v>
@@ -3568,7 +3580,7 @@
         <v>69</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3576,13 +3588,13 @@
         <v>244</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>19</v>
@@ -3594,7 +3606,7 @@
         <v>66</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I77" s="3">
         <v>118</v>
@@ -3606,7 +3618,7 @@
         <v>69</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3646,16 +3658,16 @@
         <v>265</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H82" s="16"/>
       <c r="I82" s="16"/>
@@ -3703,7 +3715,7 @@
         <v>152</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>153</v>
@@ -3720,16 +3732,16 @@
         <v>242</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F85" s="3">
         <v>1500</v>
@@ -3738,7 +3750,7 @@
         <v>66</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I85" s="3">
         <v>104</v>
@@ -3750,7 +3762,7 @@
         <v>69</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3758,13 +3770,13 @@
         <v>243</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>20</v>
@@ -3776,7 +3788,7 @@
         <v>196</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I86" s="5">
         <v>105</v>
@@ -3788,7 +3800,7 @@
         <v>69</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3796,13 +3808,13 @@
         <v>244</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>19</v>
@@ -3814,7 +3826,7 @@
         <v>66</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I87" s="3">
         <v>104</v>
@@ -3826,7 +3838,7 @@
         <v>69</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3866,16 +3878,16 @@
         <v>265</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -3921,7 +3933,7 @@
         <v>152</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J94" s="7" t="s">
         <v>153</v>
@@ -3938,16 +3950,16 @@
         <v>242</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F95" s="3">
         <v>1500</v>
@@ -3956,7 +3968,7 @@
         <v>66</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I95" s="3">
         <v>120</v>
@@ -3968,7 +3980,7 @@
         <v>69</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3976,13 +3988,13 @@
         <v>243</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>20</v>
@@ -3994,7 +4006,7 @@
         <v>196</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I96" s="3">
         <v>121</v>
@@ -4006,7 +4018,7 @@
         <v>69</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4014,13 +4026,13 @@
         <v>244</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>19</v>
@@ -4032,7 +4044,7 @@
         <v>66</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I97" s="3">
         <v>120</v>
@@ -4044,7 +4056,7 @@
         <v>69</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -4057,8 +4069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026BCBCE-4CBD-7246-9A76-5F67393CE992}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4085,22 +4097,22 @@
         <v>233</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>274</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4120,16 +4132,16 @@
         <v>268</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4165,13 +4177,13 @@
         <v>151</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>152</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>154</v>
@@ -4203,10 +4215,10 @@
         <v>65</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>167</v>
@@ -4215,7 +4227,7 @@
         <v>68</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>275</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4223,13 +4235,13 @@
         <v>272</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
@@ -4244,7 +4256,7 @@
         <v>130</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>164</v>
@@ -4253,7 +4265,7 @@
         <v>69</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4267,27 +4279,27 @@
         <v>233</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>274</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>267</v>
@@ -4302,16 +4314,16 @@
         <v>265</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4347,13 +4359,13 @@
         <v>151</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>152</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>154</v>
@@ -4373,7 +4385,7 @@
         <v>245</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>19</v>
@@ -4385,10 +4397,10 @@
         <v>65</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>167</v>
@@ -4397,7 +4409,7 @@
         <v>68</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>275</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4408,10 +4420,10 @@
         <v>265</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>20</v>
@@ -4426,7 +4438,7 @@
         <v>131</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>164</v>
@@ -4435,7 +4447,7 @@
         <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4449,27 +4461,27 @@
         <v>233</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>274</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>267</v>
@@ -4484,16 +4496,16 @@
         <v>265</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -4529,13 +4541,13 @@
         <v>151</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>152</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>154</v>
@@ -4555,7 +4567,7 @@
         <v>245</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>19</v>
@@ -4567,10 +4579,10 @@
         <v>65</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>167</v>
@@ -4579,7 +4591,7 @@
         <v>68</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>275</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4590,10 +4602,10 @@
         <v>265</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>20</v>
@@ -4608,7 +4620,7 @@
         <v>132</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>164</v>
@@ -4617,7 +4629,7 @@
         <v>69</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4631,27 +4643,27 @@
         <v>233</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>274</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>267</v>
@@ -4666,16 +4678,16 @@
         <v>265</v>
       </c>
       <c r="F29" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -4711,13 +4723,13 @@
         <v>151</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>152</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>154</v>
@@ -4737,7 +4749,7 @@
         <v>245</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>19</v>
@@ -4749,10 +4761,10 @@
         <v>65</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>167</v>
@@ -4761,7 +4773,7 @@
         <v>68</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>275</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4772,10 +4784,10 @@
         <v>265</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>20</v>
@@ -4790,7 +4802,7 @@
         <v>133</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>164</v>
@@ -4799,7 +4811,7 @@
         <v>69</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4813,22 +4825,22 @@
         <v>233</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>274</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="I37" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -4836,7 +4848,7 @@
     </row>
     <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>267</v>
@@ -4851,16 +4863,16 @@
         <v>265</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -4903,13 +4915,13 @@
         <v>151</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>154</v>
@@ -4929,7 +4941,7 @@
         <v>245</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>19</v>
@@ -4941,10 +4953,10 @@
         <v>65</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>167</v>
@@ -4953,7 +4965,7 @@
         <v>68</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>275</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4964,10 +4976,10 @@
         <v>265</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>20</v>
@@ -4982,7 +4994,7 @@
         <v>134</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>164</v>
@@ -4991,7 +5003,7 @@
         <v>69</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5005,22 +5017,22 @@
         <v>233</v>
       </c>
       <c r="D46" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>274</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="I46" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -5028,7 +5040,7 @@
     </row>
     <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>267</v>
@@ -5043,16 +5055,16 @@
         <v>265</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -5095,13 +5107,13 @@
         <v>151</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>154</v>
@@ -5121,7 +5133,7 @@
         <v>245</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>19</v>
@@ -5133,10 +5145,10 @@
         <v>65</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>167</v>
@@ -5145,7 +5157,7 @@
         <v>68</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>275</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5156,10 +5168,10 @@
         <v>265</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>20</v>
@@ -5174,7 +5186,7 @@
         <v>135</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>164</v>
@@ -5183,7 +5195,7 @@
         <v>69</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5197,22 +5209,22 @@
         <v>233</v>
       </c>
       <c r="D55" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>274</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="I55" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -5220,7 +5232,7 @@
     </row>
     <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>267</v>
@@ -5235,16 +5247,16 @@
         <v>265</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -5287,13 +5299,13 @@
         <v>151</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>154</v>
@@ -5313,7 +5325,7 @@
         <v>245</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>19</v>
@@ -5325,10 +5337,10 @@
         <v>65</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>167</v>
@@ -5337,7 +5349,7 @@
         <v>68</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>275</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5348,10 +5360,10 @@
         <v>265</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>20</v>
@@ -5366,7 +5378,7 @@
         <v>136</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J60" s="11" t="s">
         <v>164</v>
@@ -5375,7 +5387,7 @@
         <v>69</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5389,22 +5401,22 @@
         <v>233</v>
       </c>
       <c r="D64" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>274</v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="I64" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -5412,7 +5424,7 @@
     </row>
     <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>267</v>
@@ -5427,16 +5439,16 @@
         <v>265</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -5479,13 +5491,13 @@
         <v>151</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>154</v>
@@ -5505,7 +5517,7 @@
         <v>245</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>19</v>
@@ -5517,10 +5529,10 @@
         <v>65</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="J68" s="11" t="s">
         <v>167</v>
@@ -5529,7 +5541,7 @@
         <v>68</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>275</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5540,10 +5552,10 @@
         <v>265</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>20</v>
@@ -5558,7 +5570,7 @@
         <v>137</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J69" s="11" t="s">
         <v>164</v>
@@ -5567,7 +5579,7 @@
         <v>69</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/ExPECA-HW-Discovery.xlsx
+++ b/ExPECA-HW-Discovery.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmos/Downloads/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmos/Downloads/tmp2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{334D1E38-503C-8D46-A48A-56051763C7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E2C741-5480-E946-9C30-9FC2A62536DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3780" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SDRs" sheetId="8" r:id="rId1"/>
-    <sheet name="Adv Routers" sheetId="7" r:id="rId2"/>
-    <sheet name="Worker Nodes" sheetId="2" r:id="rId3"/>
-    <sheet name="Openstack Server" sheetId="4" r:id="rId4"/>
+    <sheet name="Ericsson Private 5G" sheetId="10" r:id="rId1"/>
+    <sheet name="SDRs" sheetId="8" r:id="rId2"/>
+    <sheet name="Adv Routers" sheetId="7" r:id="rId3"/>
+    <sheet name="Worker Nodes" sheetId="2" r:id="rId4"/>
+    <sheet name="Openstack Server" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="475">
   <si>
     <t>Dell PowerEdge R750xs</t>
   </si>
@@ -1426,6 +1427,33 @@
   </si>
   <si>
     <t>patch-panel-01.port-15</t>
+  </si>
+  <si>
+    <t>te1/0/51</t>
+  </si>
+  <si>
+    <t>te1/0/52</t>
+  </si>
+  <si>
+    <t>10.30.111.20/16</t>
+  </si>
+  <si>
+    <t>10.30.111.21/16</t>
+  </si>
+  <si>
+    <t>INTERFACE NAME *</t>
+  </si>
+  <si>
+    <t>Antennas</t>
+  </si>
+  <si>
+    <t>Radio Dots</t>
+  </si>
+  <si>
+    <t>Number of Antennas</t>
+  </si>
+  <si>
+    <t>Ericsson Private 5G</t>
   </si>
 </sst>
 </file>
@@ -1905,11 +1933,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F053A388-ABA5-5D40-B302-CCC9BBFEED19}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="25.5" style="2" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" customWidth="1"/>
+    <col min="12" max="12" width="61.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="I5" s="3">
+        <v>100</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="I6" s="3">
+        <v>100</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DF0E2B-725B-3247-9FD1-11D5F10AA821}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="D75" zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2021,7 +2221,7 @@
         <v>245</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
@@ -2035,14 +2235,14 @@
       <c r="H5" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="I5" s="3">
-        <v>106</v>
+      <c r="I5" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>167</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>248</v>
@@ -2059,7 +2259,7 @@
         <v>246</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
@@ -2074,7 +2274,7 @@
         <v>250</v>
       </c>
       <c r="I6" s="3">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>164</v>
@@ -2112,7 +2312,7 @@
         <v>249</v>
       </c>
       <c r="I7" s="3">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>167</v>
@@ -2219,7 +2419,7 @@
         <v>245</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>19</v>
@@ -2233,14 +2433,14 @@
       <c r="H15" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="I15" s="3">
-        <v>102</v>
+      <c r="I15" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>167</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>415</v>
@@ -2257,7 +2457,7 @@
         <v>246</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>20</v>
@@ -2272,7 +2472,7 @@
         <v>368</v>
       </c>
       <c r="I16" s="3">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>164</v>
@@ -2420,7 +2620,7 @@
         <v>245</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>19</v>
@@ -2434,14 +2634,14 @@
       <c r="H25" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="I25" s="3">
-        <v>108</v>
+      <c r="I25" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>167</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>413</v>
@@ -2458,7 +2658,7 @@
         <v>246</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>20</v>
@@ -2473,7 +2673,7 @@
         <v>369</v>
       </c>
       <c r="I26" s="3">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>164</v>
@@ -2511,7 +2711,7 @@
         <v>377</v>
       </c>
       <c r="I27" s="3">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>167</v>
@@ -2640,7 +2840,7 @@
         <v>245</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>19</v>
@@ -2654,14 +2854,14 @@
       <c r="H35" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="I35" s="3">
-        <v>110</v>
+      <c r="I35" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>167</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>411</v>
@@ -2678,7 +2878,7 @@
         <v>246</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>20</v>
@@ -2693,7 +2893,7 @@
         <v>370</v>
       </c>
       <c r="I36" s="3">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>164</v>
@@ -2731,7 +2931,7 @@
         <v>378</v>
       </c>
       <c r="I37" s="3">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>167</v>
@@ -2860,7 +3060,7 @@
         <v>245</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>19</v>
@@ -2874,14 +3074,14 @@
       <c r="H45" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="I45" s="3">
-        <v>112</v>
+      <c r="I45" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>167</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>409</v>
@@ -2898,7 +3098,7 @@
         <v>246</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>20</v>
@@ -2913,7 +3113,7 @@
         <v>371</v>
       </c>
       <c r="I46" s="3">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>164</v>
@@ -2951,7 +3151,7 @@
         <v>379</v>
       </c>
       <c r="I47" s="3">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>167</v>
@@ -3080,7 +3280,7 @@
         <v>245</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>19</v>
@@ -3094,14 +3294,14 @@
       <c r="H55" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="I55" s="3">
-        <v>114</v>
+      <c r="I55" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>167</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>407</v>
@@ -3118,7 +3318,7 @@
         <v>246</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>20</v>
@@ -3133,7 +3333,7 @@
         <v>372</v>
       </c>
       <c r="I56" s="5">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>164</v>
@@ -3171,7 +3371,7 @@
         <v>380</v>
       </c>
       <c r="I57" s="3">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>167</v>
@@ -3300,7 +3500,7 @@
         <v>245</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>19</v>
@@ -3314,14 +3514,14 @@
       <c r="H65" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="I65" s="3">
-        <v>116</v>
+      <c r="I65" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>167</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>405</v>
@@ -3338,7 +3538,7 @@
         <v>246</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>20</v>
@@ -3353,7 +3553,7 @@
         <v>373</v>
       </c>
       <c r="I66" s="3">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>164</v>
@@ -3391,7 +3591,7 @@
         <v>381</v>
       </c>
       <c r="I67" s="3">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>167</v>
@@ -3518,7 +3718,7 @@
         <v>245</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>19</v>
@@ -3532,14 +3732,14 @@
       <c r="H75" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I75" s="3">
-        <v>118</v>
+      <c r="I75" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>167</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>403</v>
@@ -3556,7 +3756,7 @@
         <v>246</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>20</v>
@@ -3571,7 +3771,7 @@
         <v>374</v>
       </c>
       <c r="I76" s="3">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>164</v>
@@ -3609,7 +3809,7 @@
         <v>382</v>
       </c>
       <c r="I77" s="3">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>167</v>
@@ -3738,7 +3938,7 @@
         <v>245</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>353</v>
@@ -3752,14 +3952,14 @@
       <c r="H85" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="I85" s="3">
-        <v>104</v>
+      <c r="I85" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>167</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>401</v>
@@ -3776,7 +3976,7 @@
         <v>246</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>20</v>
@@ -3791,7 +3991,7 @@
         <v>375</v>
       </c>
       <c r="I86" s="5">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>164</v>
@@ -3829,7 +4029,7 @@
         <v>383</v>
       </c>
       <c r="I87" s="3">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>167</v>
@@ -3956,7 +4156,7 @@
         <v>245</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>353</v>
@@ -3970,14 +4170,14 @@
       <c r="H95" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="I95" s="3">
-        <v>120</v>
+      <c r="I95" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>167</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>399</v>
@@ -3994,7 +4194,7 @@
         <v>246</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>20</v>
@@ -4009,7 +4209,7 @@
         <v>376</v>
       </c>
       <c r="I96" s="3">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>164</v>
@@ -4047,7 +4247,7 @@
         <v>384</v>
       </c>
       <c r="I97" s="3">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>167</v>
@@ -4065,12 +4265,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026BCBCE-4CBD-7246-9A76-5F67393CE992}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4253,7 +4453,7 @@
         <v>179</v>
       </c>
       <c r="H6" s="3">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>422</v>
@@ -4435,7 +4635,7 @@
         <v>179</v>
       </c>
       <c r="H15" s="3">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>425</v>
@@ -4617,7 +4817,7 @@
         <v>179</v>
       </c>
       <c r="H24" s="3">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>429</v>
@@ -4799,7 +4999,7 @@
         <v>179</v>
       </c>
       <c r="H33" s="3">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>440</v>
@@ -4991,7 +5191,7 @@
         <v>179</v>
       </c>
       <c r="H42" s="3">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>443</v>
@@ -5183,7 +5383,7 @@
         <v>179</v>
       </c>
       <c r="H51" s="3">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>446</v>
@@ -5375,7 +5575,7 @@
         <v>195</v>
       </c>
       <c r="H60" s="3">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>450</v>
@@ -5567,7 +5767,7 @@
         <v>195</v>
       </c>
       <c r="H69" s="3">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I69" s="11" t="s">
         <v>456</v>
@@ -5587,11 +5787,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAF93FA-38E5-45F4-AB60-57ED3B3EDFB0}">
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -8911,12 +9111,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA0C999-B51D-B945-AD16-6B65491DFEFD}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ExPECA-HW-Discovery.xlsx
+++ b/ExPECA-HW-Discovery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmos/Downloads/tmp2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E2C741-5480-E946-9C30-9FC2A62536DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179F4E47-BE7C-DF4E-80FE-D9A1BD06CFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3780" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3780" yWindow="-21100" windowWidth="38400" windowHeight="19740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ericsson Private 5G" sheetId="10" r:id="rId1"/>
@@ -1936,7 +1936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F053A388-ABA5-5D40-B302-CCC9BBFEED19}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2108,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DF0E2B-725B-3247-9FD1-11D5F10AA821}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2274,7 +2274,7 @@
         <v>250</v>
       </c>
       <c r="I6" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>164</v>
@@ -2472,7 +2472,7 @@
         <v>368</v>
       </c>
       <c r="I16" s="3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>164</v>
@@ -2510,7 +2510,7 @@
         <v>367</v>
       </c>
       <c r="I17" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>167</v>
@@ -2673,7 +2673,7 @@
         <v>369</v>
       </c>
       <c r="I26" s="3">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>164</v>
@@ -2711,7 +2711,7 @@
         <v>377</v>
       </c>
       <c r="I27" s="3">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>167</v>
@@ -2893,7 +2893,7 @@
         <v>370</v>
       </c>
       <c r="I36" s="3">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>164</v>
@@ -2931,7 +2931,7 @@
         <v>378</v>
       </c>
       <c r="I37" s="3">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>167</v>
@@ -3113,7 +3113,7 @@
         <v>371</v>
       </c>
       <c r="I46" s="3">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>164</v>
@@ -3151,7 +3151,7 @@
         <v>379</v>
       </c>
       <c r="I47" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>167</v>
@@ -3333,7 +3333,7 @@
         <v>372</v>
       </c>
       <c r="I56" s="5">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>164</v>
@@ -3371,7 +3371,7 @@
         <v>380</v>
       </c>
       <c r="I57" s="3">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>167</v>
@@ -3553,7 +3553,7 @@
         <v>373</v>
       </c>
       <c r="I66" s="3">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>164</v>
@@ -3591,7 +3591,7 @@
         <v>381</v>
       </c>
       <c r="I67" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>167</v>
@@ -3771,7 +3771,7 @@
         <v>374</v>
       </c>
       <c r="I76" s="3">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>164</v>
@@ -3809,7 +3809,7 @@
         <v>382</v>
       </c>
       <c r="I77" s="3">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>167</v>
@@ -3991,7 +3991,7 @@
         <v>375</v>
       </c>
       <c r="I86" s="5">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>164</v>
@@ -4029,7 +4029,7 @@
         <v>383</v>
       </c>
       <c r="I87" s="3">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>167</v>
@@ -4209,7 +4209,7 @@
         <v>376</v>
       </c>
       <c r="I96" s="3">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>164</v>
@@ -4247,7 +4247,7 @@
         <v>384</v>
       </c>
       <c r="I97" s="3">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>167</v>
@@ -5791,7 +5791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAF93FA-38E5-45F4-AB60-57ED3B3EDFB0}">
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>

--- a/ExPECA-HW-Discovery.xlsx
+++ b/ExPECA-HW-Discovery.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmos/Downloads/tmp2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmos/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179F4E47-BE7C-DF4E-80FE-D9A1BD06CFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F658C955-57E8-C345-A225-827B1D108BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3780" yWindow="-21100" windowWidth="38400" windowHeight="19740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ericsson Private 5G" sheetId="10" r:id="rId1"/>
-    <sheet name="SDRs" sheetId="8" r:id="rId2"/>
-    <sheet name="Adv Routers" sheetId="7" r:id="rId3"/>
-    <sheet name="Worker Nodes" sheetId="2" r:id="rId4"/>
-    <sheet name="Openstack Server" sheetId="4" r:id="rId5"/>
+    <sheet name="Telenor Network" sheetId="12" r:id="rId1"/>
+    <sheet name="Servers Public Network" sheetId="11" r:id="rId2"/>
+    <sheet name="Ericsson Private 5G" sheetId="10" r:id="rId3"/>
+    <sheet name="SDRs" sheetId="8" r:id="rId4"/>
+    <sheet name="Adv Routers" sheetId="7" r:id="rId5"/>
+    <sheet name="Worker Nodes" sheetId="2" r:id="rId6"/>
+    <sheet name="Openstack Server" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="490">
   <si>
     <t>Dell PowerEdge R750xs</t>
   </si>
@@ -1454,6 +1456,51 @@
   </si>
   <si>
     <t>Ericsson Private 5G</t>
+  </si>
+  <si>
+    <t>te3/0/4</t>
+  </si>
+  <si>
+    <t>eth</t>
+  </si>
+  <si>
+    <t>130.237.11.96/27</t>
+  </si>
+  <si>
+    <t>Servers Public Network</t>
+  </si>
+  <si>
+    <t>Allocatable IPs</t>
+  </si>
+  <si>
+    <t>130.237.11.[113-126]</t>
+  </si>
+  <si>
+    <t>Number of IPs</t>
+  </si>
+  <si>
+    <t>Telenor Network</t>
+  </si>
+  <si>
+    <t>10.2.58.0/24</t>
+  </si>
+  <si>
+    <t>te4/0/16</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>130.237.11.97</t>
+  </si>
+  <si>
+    <t>10.2.58.1</t>
+  </si>
+  <si>
+    <t>10.2.58.[2-254]</t>
   </si>
 </sst>
 </file>
@@ -1933,6 +1980,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BD65AE-34A5-6145-8A30-E0339BA0A8EE}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="24.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="25.5" style="2" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" customWidth="1"/>
+    <col min="12" max="12" width="61.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" s="4">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="I5" s="3">
+        <v>140</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC161A3-D687-9646-8593-1D7192D80E96}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="25.5" style="2" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" customWidth="1"/>
+    <col min="12" max="12" width="61.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2" s="4">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="I5" s="3">
+        <v>150</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F053A388-ABA5-5D40-B302-CCC9BBFEED19}">
   <dimension ref="A1:L6"/>
   <sheetViews>
@@ -2104,11 +2426,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DF0E2B-725B-3247-9FD1-11D5F10AA821}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView topLeftCell="A74" zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -4265,7 +4587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026BCBCE-4CBD-7246-9A76-5F67393CE992}">
   <dimension ref="A1:L69"/>
   <sheetViews>
@@ -5787,7 +6109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAF93FA-38E5-45F4-AB60-57ED3B3EDFB0}">
   <dimension ref="A1:I155"/>
   <sheetViews>
@@ -9111,7 +9433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA0C999-B51D-B945-AD16-6B65491DFEFD}">
   <dimension ref="A1:I9"/>
   <sheetViews>

--- a/ExPECA-HW-Discovery.xlsx
+++ b/ExPECA-HW-Discovery.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmos/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmos/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F658C955-57E8-C345-A225-827B1D108BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95023966-8478-6A40-86C0-8E780678BB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Telenor Network" sheetId="12" r:id="rId1"/>
     <sheet name="Servers Public Network" sheetId="11" r:id="rId2"/>
     <sheet name="Ericsson Private 5G" sheetId="10" r:id="rId3"/>
     <sheet name="SDRs" sheetId="8" r:id="rId4"/>
-    <sheet name="Adv Routers" sheetId="7" r:id="rId5"/>
-    <sheet name="Worker Nodes" sheetId="2" r:id="rId6"/>
-    <sheet name="Openstack Server" sheetId="4" r:id="rId7"/>
+    <sheet name="Simcards" sheetId="13" r:id="rId5"/>
+    <sheet name="Adv Routers" sheetId="7" r:id="rId6"/>
+    <sheet name="Worker Nodes" sheetId="2" r:id="rId7"/>
+    <sheet name="Openstack Server" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="876">
   <si>
     <t>Dell PowerEdge R750xs</t>
   </si>
@@ -1501,13 +1502,1171 @@
   </si>
   <si>
     <t>10.2.58.[2-254]</t>
+  </si>
+  <si>
+    <t>ICCID</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>PIN1</t>
+  </si>
+  <si>
+    <t>PUK1</t>
+  </si>
+  <si>
+    <t>PIN2</t>
+  </si>
+  <si>
+    <t>PUK2</t>
+  </si>
+  <si>
+    <t>Ki</t>
+  </si>
+  <si>
+    <t>OPC</t>
+  </si>
+  <si>
+    <t>ADM1</t>
+  </si>
+  <si>
+    <t>KIC1</t>
+  </si>
+  <si>
+    <t>KID1</t>
+  </si>
+  <si>
+    <t>KIK1</t>
+  </si>
+  <si>
+    <t>KIC2</t>
+  </si>
+  <si>
+    <t>KID2</t>
+  </si>
+  <si>
+    <t>KIK2</t>
+  </si>
+  <si>
+    <t>KIC3</t>
+  </si>
+  <si>
+    <t>KID3</t>
+  </si>
+  <si>
+    <t>KIK3</t>
+  </si>
+  <si>
+    <t>3363FF9A30A20DEFE526AFD744E2E401</t>
+  </si>
+  <si>
+    <t>BCFC023A1070382822E06537D6A1BB4C</t>
+  </si>
+  <si>
+    <t>E94B0F22C2CB860171A3970E81FCF6A2</t>
+  </si>
+  <si>
+    <t>C32AD678503DD519446A6245A3AAF844</t>
+  </si>
+  <si>
+    <t>A8EE19EF004D765D9BDEF3933E933A50</t>
+  </si>
+  <si>
+    <t>9AFD75C1E59BBEAB75F5DE5768405EC7</t>
+  </si>
+  <si>
+    <t>AB536593E207A175B379DC714941DAB1</t>
+  </si>
+  <si>
+    <t>2F12ABA534375F0C2F6D790A6F1FF45B</t>
+  </si>
+  <si>
+    <t>802CE8EB2DA66D925C000D6CBF4C6234</t>
+  </si>
+  <si>
+    <t>1B2C275695B89273F45963758E960694</t>
+  </si>
+  <si>
+    <t>8481F11D59EF8488A418493429F24DE3</t>
+  </si>
+  <si>
+    <t>F804C5F979E73D5A44DB2BA89FB27D6E</t>
+  </si>
+  <si>
+    <t>5E4A010C7F6A48A7C49DE6BC2A83E4F8</t>
+  </si>
+  <si>
+    <t>AF0B1088C66AC39958EB48583B2AF5C7</t>
+  </si>
+  <si>
+    <t>C38DBB1E35DB018130C1F633F8590669</t>
+  </si>
+  <si>
+    <t>EA249AF6FCF7A4DEE32A45FA73D148B9</t>
+  </si>
+  <si>
+    <t>02E9811E576604D3098F58047390A1FE</t>
+  </si>
+  <si>
+    <t>E5DE6E168FFFCACCE9DD3A0B96070D5F</t>
+  </si>
+  <si>
+    <t>783D310ED7E811841FC6EC6D9E9F6B53</t>
+  </si>
+  <si>
+    <t>89461495623129021EB5347A2BF93D01</t>
+  </si>
+  <si>
+    <t>81F88C365E9226FCCCEAF7C9125D2D49</t>
+  </si>
+  <si>
+    <t>71E7824FF377FD46132EF022B3975826</t>
+  </si>
+  <si>
+    <t>3A60F0C187EB084477ED0E09FB462230</t>
+  </si>
+  <si>
+    <t>A204493591D040277287363CF28B2FDB</t>
+  </si>
+  <si>
+    <t>8E14AF9BDCE1AACC12C3541CCE92E669</t>
+  </si>
+  <si>
+    <t>1FC84FFFB5CC51EBBE335A763A6FF273</t>
+  </si>
+  <si>
+    <t>6980A77D21A44A90DD692A2E36130C1C</t>
+  </si>
+  <si>
+    <t>9FA19375DF9B13C1C2C3DDA9873392A2</t>
+  </si>
+  <si>
+    <t>D1E0B24EEB68487B7EBE214BA223B5AA</t>
+  </si>
+  <si>
+    <t>273DD798DC7D93CE6DE5BB5DC7A109AA</t>
+  </si>
+  <si>
+    <t>D7875D5560BD31365918F72179C71F9E</t>
+  </si>
+  <si>
+    <t>0E3281495CF9C6544DE4E005ACEBB3DC</t>
+  </si>
+  <si>
+    <t>B577741AC65F4A690CA03FC4857254A5</t>
+  </si>
+  <si>
+    <t>641A6C015305D8AFE8173DBBBA02CEDB</t>
+  </si>
+  <si>
+    <t>903B408F9C1EBCF5299759BD56CE8CE0</t>
+  </si>
+  <si>
+    <t>52C0449FAC07829222BF392CEBA1EBFB</t>
+  </si>
+  <si>
+    <t>D1465E76D8BCAC1B581A8B5CA5E8A263</t>
+  </si>
+  <si>
+    <t>D53DE97F4BFC71B4729774998329E2EB</t>
+  </si>
+  <si>
+    <t>F51AFF190C8E7A95142846927C26EC3A</t>
+  </si>
+  <si>
+    <t>1DD557AEB86BAFD4D4A904404812972E</t>
+  </si>
+  <si>
+    <t>379F668BE8885646C3536B22B5DE384B</t>
+  </si>
+  <si>
+    <t>AB397CADD23432896A2A44638A3A4D01</t>
+  </si>
+  <si>
+    <t>90185ADCC06051947E10EA65008D1FF5</t>
+  </si>
+  <si>
+    <t>71B8940E96EA5C036DDC20BD43F3BB89</t>
+  </si>
+  <si>
+    <t>CD89DD0B4FF2D2A53F6BA6BB576FE340</t>
+  </si>
+  <si>
+    <t>93508B54615F96FB8171152C4A26ADBB</t>
+  </si>
+  <si>
+    <t>00E9E3C6FEEBE12CEBA80A5497A26CE7</t>
+  </si>
+  <si>
+    <t>6DF3E28ADDDCA65A19BDEA219CCF90FD</t>
+  </si>
+  <si>
+    <t>E15B8A6B7D99970F9F4429843FD11518</t>
+  </si>
+  <si>
+    <t>2DD3325F602816234288AD4100C0901C</t>
+  </si>
+  <si>
+    <t>170D733C180169D45BD2EA99B3211B47</t>
+  </si>
+  <si>
+    <t>A7D2F3C99D319DB9456728F5EC560FDF</t>
+  </si>
+  <si>
+    <t>B40D6D325DD9002C695E038D3D7D7020</t>
+  </si>
+  <si>
+    <t>6D65992ECCC67EE56FBAF6B1D874E705</t>
+  </si>
+  <si>
+    <t>C30AE4A6B4E8EACED1C75F3F2D0F7BC7</t>
+  </si>
+  <si>
+    <t>4F53F576FEC93298CA6C857BCA5C0466</t>
+  </si>
+  <si>
+    <t>3FB8603E2EBAD0EC6047E2F7F6172D25</t>
+  </si>
+  <si>
+    <t>2F46482F2C9B020BF2840D874ECF6265</t>
+  </si>
+  <si>
+    <t>B395830815B6E73AA1B23E5F34DFD991</t>
+  </si>
+  <si>
+    <t>FB768819F5FF8D34EA54555DE96FC95E</t>
+  </si>
+  <si>
+    <t>C3E037EDF062B3795F0D8D7A5CA3D713</t>
+  </si>
+  <si>
+    <t>AB7C8BD846486FB4074E1DC060895032</t>
+  </si>
+  <si>
+    <t>E9E09B54A7ECA199C20FBAE77113D847</t>
+  </si>
+  <si>
+    <t>7D42B26DE3F1177A7083E6A144F218D5</t>
+  </si>
+  <si>
+    <t>BC5A917C07836BBEDBF215378E8842F3</t>
+  </si>
+  <si>
+    <t>76D6431ED7E34FF7C921E32306FF55D0</t>
+  </si>
+  <si>
+    <t>41F32B6DAFF9FED90B99B3E69F47B8DC</t>
+  </si>
+  <si>
+    <t>9C443FA85D2B701A964847E3525E1BE8</t>
+  </si>
+  <si>
+    <t>FDE6510BE9A8595A8F3BB55497A0438B</t>
+  </si>
+  <si>
+    <t>168211D666B21A87AD7DCAB2A565A509</t>
+  </si>
+  <si>
+    <t>B52442C10B1F86723DEDB7A89C098447</t>
+  </si>
+  <si>
+    <t>F06FCC90C210B94ACCCA5E6BDDA7B52A</t>
+  </si>
+  <si>
+    <t>95AC9F735E817FF6FC9F9879FA72EAA3</t>
+  </si>
+  <si>
+    <t>F982C136991546A46AF7F541C11A9496</t>
+  </si>
+  <si>
+    <t>388D12F06A11E96EEFD5942378404F59</t>
+  </si>
+  <si>
+    <t>E0BB725AE57F918065FB08668C3E35E1</t>
+  </si>
+  <si>
+    <t>0A01406D60F938E8995246C381232B29</t>
+  </si>
+  <si>
+    <t>82E2B0A0B2187600E2F8E7828AC19338</t>
+  </si>
+  <si>
+    <t>CDFF42CFDEBEEFDE2F38D1508770CF6D</t>
+  </si>
+  <si>
+    <t>CE0AB529C5A479841E781D802E9249A0</t>
+  </si>
+  <si>
+    <t>2AC3F3D2717A472578712979B8AAAA24</t>
+  </si>
+  <si>
+    <t>A2AA303719B4F94B65AB19593306423C</t>
+  </si>
+  <si>
+    <t>2429B5527CC3B254C38FB0537BFFCB73</t>
+  </si>
+  <si>
+    <t>CDF9DD8461118675CAA86DC660EEF272</t>
+  </si>
+  <si>
+    <t>2FEC558FF557A7DFF8DC748904A6CF65</t>
+  </si>
+  <si>
+    <t>DFA58B3928BDDB12A23F88D355ECF3D5</t>
+  </si>
+  <si>
+    <t>9D3E238FAA3B7E7651FE8C849DFC7123</t>
+  </si>
+  <si>
+    <t>D807E6BA62B849711042ECB5CED4890C</t>
+  </si>
+  <si>
+    <t>5675A5CE65FB4D053872E4F4B17E674E</t>
+  </si>
+  <si>
+    <t>C8A77D747F9BFE10ABA1974C42934DD0</t>
+  </si>
+  <si>
+    <t>D83B06B02C07D0D1C253555E6D6AB5B1</t>
+  </si>
+  <si>
+    <t>BA779522C36301C3A52413D571C39B07</t>
+  </si>
+  <si>
+    <t>E03DA43979EBD108DBD0D5F8EC34E065</t>
+  </si>
+  <si>
+    <t>6A8E0055B1C5A5753A420B07F4FB5FFF</t>
+  </si>
+  <si>
+    <t>B84D7E2FC67B38CFA58C47F38E08D670</t>
+  </si>
+  <si>
+    <t>44AD6AE2C345561A982FFE36DFCA14DF</t>
+  </si>
+  <si>
+    <t>70D53F9FB6B09FEE5630AF257EB1E631</t>
+  </si>
+  <si>
+    <t>6C9AC246907D3B73F76397967D01EFDB</t>
+  </si>
+  <si>
+    <t>786783B8C836BA940E7C8C9295319CE6</t>
+  </si>
+  <si>
+    <t>715440D4AC162E2D6835DF2D3814F1A9</t>
+  </si>
+  <si>
+    <t>DDC5C6B14EAF37AAD3AA19901FFC8E67</t>
+  </si>
+  <si>
+    <t>C08485B71B659465D9953A02F0EFE28B</t>
+  </si>
+  <si>
+    <t>67BAC11D960102FD9E0E6CA777B23209</t>
+  </si>
+  <si>
+    <t>B9561C4141F9324AA344F915DE8E2E0C</t>
+  </si>
+  <si>
+    <t>ABDC144B481ABCBF8187190CF8EDEE27</t>
+  </si>
+  <si>
+    <t>62304899D2A04A6D8777795108ED1F10</t>
+  </si>
+  <si>
+    <t>DF5FFB9B9EE7C09F9A5DBFB9E02551B5</t>
+  </si>
+  <si>
+    <t>56D1B2AE4594390A91A6C3D1A06AB694</t>
+  </si>
+  <si>
+    <t>68092D99F152897B6FA8FF75E1908D61</t>
+  </si>
+  <si>
+    <t>25C3FA373A70CA4A25F00AF723EFFE30</t>
+  </si>
+  <si>
+    <t>95C429011861ABDC6F7F5AF73EE27401</t>
+  </si>
+  <si>
+    <t>48915780AACECEB63FB6696DFFF6EF02</t>
+  </si>
+  <si>
+    <t>DFC24322C027D059981644C2BCB6E0BD</t>
+  </si>
+  <si>
+    <t>F2C7F573C262F83EDC788F57C5112D13</t>
+  </si>
+  <si>
+    <t>3A3FB2943D870DA7E5E51E52293D3A39</t>
+  </si>
+  <si>
+    <t>22753AEE6B53467DC904454797799486</t>
+  </si>
+  <si>
+    <t>E930887D034B7F6BB94D8DDC43A5159F</t>
+  </si>
+  <si>
+    <t>3E563550D63FA7E7F835CB3941C50F6C</t>
+  </si>
+  <si>
+    <t>519769F8B5BD35D6F5CF341DC56A3923</t>
+  </si>
+  <si>
+    <t>EFA609414344B0AA89A084CE804629F3</t>
+  </si>
+  <si>
+    <t>3E218BAB3C1CEA81215E5A060A89218D</t>
+  </si>
+  <si>
+    <t>AFA641DFA4DF8DE7D3BC881FE5E9A9A0</t>
+  </si>
+  <si>
+    <t>007EF6D2D9FC8D366FF87EC47DADD548</t>
+  </si>
+  <si>
+    <t>DF34AE43233D1F6E9541947CB2180A6F</t>
+  </si>
+  <si>
+    <t>AC60C86A25E63F64DD3E49D755014863</t>
+  </si>
+  <si>
+    <t>1986AE02C1B55A865D3E4007268BF847</t>
+  </si>
+  <si>
+    <t>BD3AD14DA55550F8F44A65E5F4471893</t>
+  </si>
+  <si>
+    <t>F930622C6A08AEF706420CE6A6383E51</t>
+  </si>
+  <si>
+    <t>4601191B30FABEC435B50E764F759116</t>
+  </si>
+  <si>
+    <t>25AC0DF528CBDCB58CD94763486952BB</t>
+  </si>
+  <si>
+    <t>0C149FF32EFD63FF729EF7B4FA37A891</t>
+  </si>
+  <si>
+    <t>B0F6C1FA2B48287A24648E56B25A7BCB</t>
+  </si>
+  <si>
+    <t>8AD328BB5431B6B252A85890C4EB24CE</t>
+  </si>
+  <si>
+    <t>C96E0C4C17232C51A7CD6DBB120E99B0</t>
+  </si>
+  <si>
+    <t>FCA829220BC1A54FB1CF1EB93DC16C66</t>
+  </si>
+  <si>
+    <t>A7D61386C4FBA0440FA774FF4C7DD221</t>
+  </si>
+  <si>
+    <t>34E74F6FFA0946E5271E0942EFDF735A</t>
+  </si>
+  <si>
+    <t>5837FF2595B3600108E413634DA50234</t>
+  </si>
+  <si>
+    <t>FDFD855671FC6C9E902D5EA6F25D542F</t>
+  </si>
+  <si>
+    <t>3419A7147EAC8B80864E6615F6E29881</t>
+  </si>
+  <si>
+    <t>1BD445F25A1DE85BCA61956754BA0FAA</t>
+  </si>
+  <si>
+    <t>90E32F34FEEDB6507104CF239657A7AD</t>
+  </si>
+  <si>
+    <t>95DD8A1D1861D516304B4A1D16242CCC</t>
+  </si>
+  <si>
+    <t>4DC5C573B9E8D1772FF1922E0D1804B2</t>
+  </si>
+  <si>
+    <t>A3993A4CD803E4DAD394F931595CFF23</t>
+  </si>
+  <si>
+    <t>2E52B49C4D2855059A5FD08A85BA347D</t>
+  </si>
+  <si>
+    <t>4AE1EAA025EEA01DD2F26F4E8E4F992C</t>
+  </si>
+  <si>
+    <t>CC350CFA236696B17D8E5FD289D27A69</t>
+  </si>
+  <si>
+    <t>AB017F899B363D3FB296C95AB907764B</t>
+  </si>
+  <si>
+    <t>C6A3BE4FAD3A59E34A3922968FCE9400</t>
+  </si>
+  <si>
+    <t>7805A28DCF0F9095F7CC478D9D3BF875</t>
+  </si>
+  <si>
+    <t>17130BE5132ABB71A79C3F6214A6B0E4</t>
+  </si>
+  <si>
+    <t>02C8E2B364E97BB7122857E1F2CC460E</t>
+  </si>
+  <si>
+    <t>40AD7E7CC2AEED4D4931E533CF2E8150</t>
+  </si>
+  <si>
+    <t>EBD2D97FDB5531216728342154DB9469</t>
+  </si>
+  <si>
+    <t>330348E8E4A707C68E4272B5FC9B50E4</t>
+  </si>
+  <si>
+    <t>DD9D0C1A28E74236F8C4DADE2A4E6BEE</t>
+  </si>
+  <si>
+    <t>43CB13F098E37C25CBD74FB278D919F9</t>
+  </si>
+  <si>
+    <t>81F96A4AD88DDEDF4C0B79F022BD2595</t>
+  </si>
+  <si>
+    <t>02EDBEAF5CC171FA21E74E50978FBE1E</t>
+  </si>
+  <si>
+    <t>AAE05D31E42115B6ED33A48D698B020E</t>
+  </si>
+  <si>
+    <t>B2B9B08A1B6A9CBF877028F03E8D47BD</t>
+  </si>
+  <si>
+    <t>4D5B464260F4B1E1D707C2291CE49095</t>
+  </si>
+  <si>
+    <t>E4409EDEDF33023F439DA974F825785F</t>
+  </si>
+  <si>
+    <t>ECE73F0E45C0ADBE08CEB213A873A3A3</t>
+  </si>
+  <si>
+    <t>623C35A481502492E0D51080EE97CFF9</t>
+  </si>
+  <si>
+    <t>069466197A71820925B53FC2EA74CBE6</t>
+  </si>
+  <si>
+    <t>6DFE5E42E76A0D93CD9A6A6F2EC943A8</t>
+  </si>
+  <si>
+    <t>829914F1BA2C7FCC1162A76C0A29806A</t>
+  </si>
+  <si>
+    <t>50988C083623310F63EE3B8B4ACF9321</t>
+  </si>
+  <si>
+    <t>302264666F547C417E913185C2A089A4</t>
+  </si>
+  <si>
+    <t>1A001E953C3A725F67048ECBF1F48241</t>
+  </si>
+  <si>
+    <t>CE863CE7C519FAFB1C4B89A5F1AC4CC2</t>
+  </si>
+  <si>
+    <t>6597704AB0FDE4F5B004FE6AC6B04F89</t>
+  </si>
+  <si>
+    <t>0EF0B63C64A1DE00062278F1B1CD6DBB</t>
+  </si>
+  <si>
+    <t>B8CB665A833890D0A14636C01A8F346C</t>
+  </si>
+  <si>
+    <t>F344E39743B2FB49F506D65FE69B1E6A</t>
+  </si>
+  <si>
+    <t>1DE676ED0CF6B1376CC6A86EA2A113F4</t>
+  </si>
+  <si>
+    <t>D6DD392205F9BFA10F743E599B89CD9F</t>
+  </si>
+  <si>
+    <t>78FC93AC2B7D0A8DA754F2E25C9AED1D</t>
+  </si>
+  <si>
+    <t>17F40F99B4E9F0B777CAB6332F49058A</t>
+  </si>
+  <si>
+    <t>2662D2B16DA6FE59D2AC7BB007DC4574</t>
+  </si>
+  <si>
+    <t>872141A77A34EB8E0CDC3561C6D75D5E</t>
+  </si>
+  <si>
+    <t>4F68BBF9C73BAF71F5B5C6076E3FAF9A</t>
+  </si>
+  <si>
+    <t>8542AB0D075D0FF27744A491719C93FB</t>
+  </si>
+  <si>
+    <t>4E1C619E214BAC4C72D0B1C46DE420CC</t>
+  </si>
+  <si>
+    <t>2C9ADC842B5056F158C98283961E0059</t>
+  </si>
+  <si>
+    <t>AC4B859223D764D6C00FCFFEC6704658</t>
+  </si>
+  <si>
+    <t>C829B553CF58A1A22BCEEF1B20A2EFCC</t>
+  </si>
+  <si>
+    <t>60BEBA299813FBBA8B6DCA21716BA947</t>
+  </si>
+  <si>
+    <t>6753A9E26755E848B51E1F0248A62B39</t>
+  </si>
+  <si>
+    <t>14D8C9F699A6C08EA670438151FF3083</t>
+  </si>
+  <si>
+    <t>226EB8F16361880AD6717379F3F972E5</t>
+  </si>
+  <si>
+    <t>41900D99A2B3ADC1931B3CF71267F6B6</t>
+  </si>
+  <si>
+    <t>EE9CE0DAEE39D6B24FBE202732479BAD</t>
+  </si>
+  <si>
+    <t>FE5D3FC0F297E06FC0F75E472491F86F</t>
+  </si>
+  <si>
+    <t>7ABD8B571998F707BA5A49E493868E4C</t>
+  </si>
+  <si>
+    <t>808FF9B42736C457BB7019F6DB8E8DBE</t>
+  </si>
+  <si>
+    <t>974DFCDB3A6812C79598444744F9339B</t>
+  </si>
+  <si>
+    <t>A87E002C2BCC8A1EE1D919903CFA934D</t>
+  </si>
+  <si>
+    <t>C6F8268169687C88A8ECE6660BDACBC2</t>
+  </si>
+  <si>
+    <t>DDF9614F828B9A04F65814CC2ADC129F</t>
+  </si>
+  <si>
+    <t>716264D4649D78719D07930EACE7E354</t>
+  </si>
+  <si>
+    <t>6047E19B7D3F473B5D228A1053AF5ECC</t>
+  </si>
+  <si>
+    <t>D947F4A976F65E4081F0B17AF78C570F</t>
+  </si>
+  <si>
+    <t>75BF6BE2FB7722321B28774213671DED</t>
+  </si>
+  <si>
+    <t>A9C73565F23ADE6AE8A1198D8DCD43D1</t>
+  </si>
+  <si>
+    <t>CA7A9B93437BD16125C28E4D7F1C2C19</t>
+  </si>
+  <si>
+    <t>D2C3D03056F21C3BE101F9595E94A44E</t>
+  </si>
+  <si>
+    <t>EACC74FFBBC9FC137AD75E60B2418177</t>
+  </si>
+  <si>
+    <t>03901D3F68D9A4944D4819A23A82B2EC</t>
+  </si>
+  <si>
+    <t>D9DB51D22BA03A6BD869AD7ED0AF136C</t>
+  </si>
+  <si>
+    <t>281028E0B273B05AD8F72572D1612953</t>
+  </si>
+  <si>
+    <t>92A5B741EE95AD0359E170B0F4BBB102</t>
+  </si>
+  <si>
+    <t>D92227060404AC652BF7F9337AC79A76</t>
+  </si>
+  <si>
+    <t>3F59EC2BF7D17D92632486D003FF651C</t>
+  </si>
+  <si>
+    <t>452299AE3A234F8DF95116F69C798992</t>
+  </si>
+  <si>
+    <t>47F9719BCF860B07A594A3E07EDB622B</t>
+  </si>
+  <si>
+    <t>91DCED582EEC3C1B0A5F32A5BA86F6E9</t>
+  </si>
+  <si>
+    <t>9BF489098ECA4DBF179109A57F6F0E1D</t>
+  </si>
+  <si>
+    <t>Old IMSI</t>
+  </si>
+  <si>
+    <t>New IMSI</t>
+  </si>
+  <si>
+    <t>999700000113910</t>
+  </si>
+  <si>
+    <t>8988211000001139107</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>08875465</t>
+  </si>
+  <si>
+    <t>88987312</t>
+  </si>
+  <si>
+    <t>91038140</t>
+  </si>
+  <si>
+    <t>999700000113911</t>
+  </si>
+  <si>
+    <t>8988211000001139115</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>04542795</t>
+  </si>
+  <si>
+    <t>79974734</t>
+  </si>
+  <si>
+    <t>04513843</t>
+  </si>
+  <si>
+    <t>999700000113912</t>
+  </si>
+  <si>
+    <t>8988211000001139123</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>89513354</t>
+  </si>
+  <si>
+    <t>62017877</t>
+  </si>
+  <si>
+    <t>85033298</t>
+  </si>
+  <si>
+    <t>999700000113913</t>
+  </si>
+  <si>
+    <t>8988211000001139131</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>51495141</t>
+  </si>
+  <si>
+    <t>08087286</t>
+  </si>
+  <si>
+    <t>15156055</t>
+  </si>
+  <si>
+    <t>999700000113914</t>
+  </si>
+  <si>
+    <t>8988211000001139149</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>05691984</t>
+  </si>
+  <si>
+    <t>58488214</t>
+  </si>
+  <si>
+    <t>99524224</t>
+  </si>
+  <si>
+    <t>999700000113915</t>
+  </si>
+  <si>
+    <t>8988211000001139156</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>60787871</t>
+  </si>
+  <si>
+    <t>12887232</t>
+  </si>
+  <si>
+    <t>46827369</t>
+  </si>
+  <si>
+    <t>999700000113916</t>
+  </si>
+  <si>
+    <t>8988211000001139164</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>75217825</t>
+  </si>
+  <si>
+    <t>37391108</t>
+  </si>
+  <si>
+    <t>34212372</t>
+  </si>
+  <si>
+    <t>999700000113917</t>
+  </si>
+  <si>
+    <t>8988211000001139172</t>
+  </si>
+  <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>79600683</t>
+  </si>
+  <si>
+    <t>19918608</t>
+  </si>
+  <si>
+    <t>91669523</t>
+  </si>
+  <si>
+    <t>999700000113918</t>
+  </si>
+  <si>
+    <t>8988211000001139180</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>99582404</t>
+  </si>
+  <si>
+    <t>27158231</t>
+  </si>
+  <si>
+    <t>14046769</t>
+  </si>
+  <si>
+    <t>999700000113919</t>
+  </si>
+  <si>
+    <t>8988211000001139198</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>48450743</t>
+  </si>
+  <si>
+    <t>99852180</t>
+  </si>
+  <si>
+    <t>70503752</t>
+  </si>
+  <si>
+    <t>999700000113920</t>
+  </si>
+  <si>
+    <t>8988211000001139206</t>
+  </si>
+  <si>
+    <t>62516883</t>
+  </si>
+  <si>
+    <t>04473739</t>
+  </si>
+  <si>
+    <t>32256160</t>
+  </si>
+  <si>
+    <t>999700000113921</t>
+  </si>
+  <si>
+    <t>8988211000001139214</t>
+  </si>
+  <si>
+    <t>74992807</t>
+  </si>
+  <si>
+    <t>61438665</t>
+  </si>
+  <si>
+    <t>08608767</t>
+  </si>
+  <si>
+    <t>999700000113922</t>
+  </si>
+  <si>
+    <t>8988211000001139222</t>
+  </si>
+  <si>
+    <t>63526369</t>
+  </si>
+  <si>
+    <t>82849083</t>
+  </si>
+  <si>
+    <t>14968325</t>
+  </si>
+  <si>
+    <t>999700000113923</t>
+  </si>
+  <si>
+    <t>8988211000001139230</t>
+  </si>
+  <si>
+    <t>38413363</t>
+  </si>
+  <si>
+    <t>83214815</t>
+  </si>
+  <si>
+    <t>07968676</t>
+  </si>
+  <si>
+    <t>999700000113924</t>
+  </si>
+  <si>
+    <t>8988211000001139248</t>
+  </si>
+  <si>
+    <t>16384594</t>
+  </si>
+  <si>
+    <t>11297532</t>
+  </si>
+  <si>
+    <t>60177010</t>
+  </si>
+  <si>
+    <t>999700000113925</t>
+  </si>
+  <si>
+    <t>8988211000001139255</t>
+  </si>
+  <si>
+    <t>09206915</t>
+  </si>
+  <si>
+    <t>06343828</t>
+  </si>
+  <si>
+    <t>00844636</t>
+  </si>
+  <si>
+    <t>999700000113926</t>
+  </si>
+  <si>
+    <t>8988211000001139263</t>
+  </si>
+  <si>
+    <t>96015105</t>
+  </si>
+  <si>
+    <t>48704388</t>
+  </si>
+  <si>
+    <t>02401522</t>
+  </si>
+  <si>
+    <t>999700000113927</t>
+  </si>
+  <si>
+    <t>8988211000001139271</t>
+  </si>
+  <si>
+    <t>22851107</t>
+  </si>
+  <si>
+    <t>39955937</t>
+  </si>
+  <si>
+    <t>51450440</t>
+  </si>
+  <si>
+    <t>999700000113928</t>
+  </si>
+  <si>
+    <t>8988211000001139289</t>
+  </si>
+  <si>
+    <t>51754394</t>
+  </si>
+  <si>
+    <t>65663706</t>
+  </si>
+  <si>
+    <t>22099589</t>
+  </si>
+  <si>
+    <t>999700000113929</t>
+  </si>
+  <si>
+    <t>8988211000001139297</t>
+  </si>
+  <si>
+    <t>56779882</t>
+  </si>
+  <si>
+    <t>64403091</t>
+  </si>
+  <si>
+    <t>85017255</t>
+  </si>
+  <si>
+    <t>001010000000001</t>
+  </si>
+  <si>
+    <t>001010000000002</t>
+  </si>
+  <si>
+    <t>001010000000003</t>
+  </si>
+  <si>
+    <t>001010000000004</t>
+  </si>
+  <si>
+    <t>001010000000005</t>
+  </si>
+  <si>
+    <t>001010000000006</t>
+  </si>
+  <si>
+    <t>001010000000007</t>
+  </si>
+  <si>
+    <t>001010000000008</t>
+  </si>
+  <si>
+    <t>001010000000009</t>
+  </si>
+  <si>
+    <t>001010000000010</t>
+  </si>
+  <si>
+    <t>001010000000011</t>
+  </si>
+  <si>
+    <t>001010000000012</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>ExPECA ID</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Dongle</t>
+  </si>
+  <si>
+    <t>Advantech-08</t>
+  </si>
+  <si>
+    <t>Advantech-01</t>
+  </si>
+  <si>
+    <t>Advantech-02</t>
+  </si>
+  <si>
+    <t>Advantech-03</t>
+  </si>
+  <si>
+    <t>Advantech-04</t>
+  </si>
+  <si>
+    <t>Advantech-05</t>
+  </si>
+  <si>
+    <t>Advantech-06</t>
+  </si>
+  <si>
+    <t>Advantech-07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1556,8 +2715,30 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1588,8 +2769,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1649,11 +2836,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1701,6 +2916,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1983,7 +3212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BD65AE-34A5-6145-8A30-E0339BA0A8EE}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2430,7 +3659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DF0E2B-725B-3247-9FD1-11D5F10AA821}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -4588,6 +5817,1504 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82C1EE1-C20D-2C48-A4D2-81B505EE9C97}">
+  <dimension ref="A1:X23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="26" style="19" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="11.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.33203125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="43.1640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>854</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+    </row>
+    <row r="2" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>866</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>869</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>846</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>730</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>735</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>736</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+    </row>
+    <row r="3" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>865</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>870</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>852</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>737</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>738</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>739</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>740</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>741</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>742</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+    </row>
+    <row r="4" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>747</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+    </row>
+    <row r="5" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>749</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>751</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>753</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>754</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="U5" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="V5" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+    </row>
+    <row r="6" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>756</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>758</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>759</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>760</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="V6" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+    </row>
+    <row r="7" spans="1:24" ht="80" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>761</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>762</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>763</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>765</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>766</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>569</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="U7" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="V7" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+    </row>
+    <row r="8" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
+        <v>767</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>770</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>771</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>577</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>579</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="U8" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="V8" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+    </row>
+    <row r="9" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>775</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>777</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="T9" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="U9" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="V9" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+    </row>
+    <row r="10" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>780</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>783</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>784</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="U10" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="V10" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+    </row>
+    <row r="11" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>785</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>787</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>789</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>790</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="U11" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="V11" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+    </row>
+    <row r="12" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>864</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>871</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>791</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>795</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="T12" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="U12" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="V12" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+    </row>
+    <row r="13" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>863</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>872</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>796</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>739</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="T13" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="U13" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="V13" s="24" t="s">
+        <v>639</v>
+      </c>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+    </row>
+    <row r="14" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>849</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>803</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>804</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>643</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>645</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>646</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="T14" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="U14" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="V14" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+    </row>
+    <row r="15" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>861</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>874</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>847</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>806</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>751</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>808</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>809</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>652</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>653</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>656</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="T15" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="U15" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="V15" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+    </row>
+    <row r="16" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>860</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>875</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>848</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>811</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>813</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>814</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>662</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>663</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>815</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>667</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>668</v>
+      </c>
+      <c r="S16" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="T16" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="U16" s="24" t="s">
+        <v>671</v>
+      </c>
+      <c r="V16" s="24" t="s">
+        <v>672</v>
+      </c>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+    </row>
+    <row r="17" spans="1:24" ht="80" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>859</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>867</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>763</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>818</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>819</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>675</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>676</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>679</v>
+      </c>
+      <c r="S17" s="24" t="s">
+        <v>680</v>
+      </c>
+      <c r="T17" s="24" t="s">
+        <v>681</v>
+      </c>
+      <c r="U17" s="24" t="s">
+        <v>682</v>
+      </c>
+      <c r="V17" s="24" t="s">
+        <v>683</v>
+      </c>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+    </row>
+    <row r="18" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>867</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>823</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>684</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>686</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>687</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="R18" s="24" t="s">
+        <v>690</v>
+      </c>
+      <c r="S18" s="24" t="s">
+        <v>691</v>
+      </c>
+      <c r="T18" s="24" t="s">
+        <v>692</v>
+      </c>
+      <c r="U18" s="24" t="s">
+        <v>693</v>
+      </c>
+      <c r="V18" s="24" t="s">
+        <v>694</v>
+      </c>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+    </row>
+    <row r="19" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>857</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>867</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>826</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>827</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>775</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>828</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>695</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>696</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>697</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>698</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>700</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>702</v>
+      </c>
+      <c r="T19" s="24" t="s">
+        <v>703</v>
+      </c>
+      <c r="U19" s="24" t="s">
+        <v>704</v>
+      </c>
+      <c r="V19" s="24" t="s">
+        <v>705</v>
+      </c>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+    </row>
+    <row r="20" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>856</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>868</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>845</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>831</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>832</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>833</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>706</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>835</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>708</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>709</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>713</v>
+      </c>
+      <c r="T20" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="U20" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="V20" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+    </row>
+    <row r="21" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>867</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>837</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>787</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>838</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>840</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>722</v>
+      </c>
+      <c r="R21" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>724</v>
+      </c>
+      <c r="T21" s="24" t="s">
+        <v>725</v>
+      </c>
+      <c r="U21" s="24" t="s">
+        <v>726</v>
+      </c>
+      <c r="V21" s="24" t="s">
+        <v>727</v>
+      </c>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+    </row>
+    <row r="22" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+    </row>
+    <row r="23" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026BCBCE-4CBD-7246-9A76-5F67393CE992}">
   <dimension ref="A1:L69"/>
   <sheetViews>
@@ -6109,7 +8836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAF93FA-38E5-45F4-AB60-57ED3B3EDFB0}">
   <dimension ref="A1:I155"/>
   <sheetViews>
@@ -9433,7 +12160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA0C999-B51D-B945-AD16-6B65491DFEFD}">
   <dimension ref="A1:I9"/>
   <sheetViews>

--- a/ExPECA-HW-Discovery.xlsx
+++ b/ExPECA-HW-Discovery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmos/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95023966-8478-6A40-86C0-8E780678BB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9445048-2380-744D-819C-6136E35EE9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Telenor Network" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="871">
   <si>
     <t>Dell PowerEdge R750xs</t>
   </si>
@@ -1312,12 +1312,6 @@
     <t>te2/0/18</t>
   </si>
   <si>
-    <t>10.42.3.2/24</t>
-  </si>
-  <si>
-    <t>10.42.3.3/24</t>
-  </si>
-  <si>
     <t>patch-panel-02.port-20</t>
   </si>
   <si>
@@ -1339,12 +1333,6 @@
     <t>172.16.0.96</t>
   </si>
   <si>
-    <t>10.42.3.4/24</t>
-  </si>
-  <si>
-    <t>10.42.3.5/24</t>
-  </si>
-  <si>
     <t>172.16.0.64</t>
   </si>
   <si>
@@ -1364,9 +1352,6 @@
   </si>
   <si>
     <t>te2/0/21</t>
-  </si>
-  <si>
-    <t>10.42.3.6/24</t>
   </si>
   <si>
     <t>172.16.0.72</t>
@@ -3234,13 +3219,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>481</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>486</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3248,16 +3233,16 @@
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C2" s="4">
         <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
@@ -3271,7 +3256,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>261</v>
@@ -3312,7 +3297,7 @@
         <v>421</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
@@ -3324,7 +3309,7 @@
         <v>196</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I5" s="3">
         <v>140</v>
@@ -3372,13 +3357,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3386,16 +3371,16 @@
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C2" s="4">
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
@@ -3409,7 +3394,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>261</v>
@@ -3441,7 +3426,7 @@
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>421</v>
@@ -3450,7 +3435,7 @@
         <v>421</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
@@ -3462,13 +3447,13 @@
         <v>195</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="I5" s="3">
         <v>150</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>69</v>
@@ -3510,10 +3495,10 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3522,10 +3507,10 @@
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C2" s="4">
         <v>4</v>
@@ -3543,7 +3528,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>261</v>
@@ -3584,7 +3569,7 @@
         <v>421</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
@@ -3596,7 +3581,7 @@
         <v>66</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I5" s="3">
         <v>100</v>
@@ -3622,7 +3607,7 @@
         <v>421</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
@@ -3634,7 +3619,7 @@
         <v>66</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I6" s="3">
         <v>100</v>
@@ -3659,8 +3644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DF0E2B-725B-3247-9FD1-11D5F10AA821}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A84" zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3720,7 +3705,7 @@
         <v>235</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3772,7 +3757,7 @@
         <v>245</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
@@ -3810,7 +3795,7 @@
         <v>246</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
@@ -3918,7 +3903,7 @@
         <v>235</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3970,7 +3955,7 @@
         <v>245</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>19</v>
@@ -4008,7 +3993,7 @@
         <v>246</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>20</v>
@@ -4119,7 +4104,7 @@
         <v>235</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4171,7 +4156,7 @@
         <v>245</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>19</v>
@@ -4209,7 +4194,7 @@
         <v>246</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>20</v>
@@ -4322,7 +4307,7 @@
         <v>235</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -4391,7 +4376,7 @@
         <v>245</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>19</v>
@@ -4429,7 +4414,7 @@
         <v>246</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>20</v>
@@ -4540,7 +4525,7 @@
         <v>235</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
@@ -4611,7 +4596,7 @@
         <v>245</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>19</v>
@@ -4649,7 +4634,7 @@
         <v>246</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>20</v>
@@ -4760,7 +4745,7 @@
         <v>235</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
@@ -4831,7 +4816,7 @@
         <v>245</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>19</v>
@@ -4869,7 +4854,7 @@
         <v>246</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>20</v>
@@ -4980,7 +4965,7 @@
         <v>235</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
@@ -5051,7 +5036,7 @@
         <v>245</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>19</v>
@@ -5089,7 +5074,7 @@
         <v>246</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>20</v>
@@ -5200,7 +5185,7 @@
         <v>235</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -5269,7 +5254,7 @@
         <v>245</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>19</v>
@@ -5307,7 +5292,7 @@
         <v>246</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>20</v>
@@ -5418,7 +5403,7 @@
         <v>235</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="H82" s="16"/>
       <c r="I82" s="16"/>
@@ -5489,7 +5474,7 @@
         <v>245</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>353</v>
@@ -5527,7 +5512,7 @@
         <v>246</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>20</v>
@@ -5638,7 +5623,7 @@
         <v>235</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -5707,7 +5692,7 @@
         <v>245</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>353</v>
@@ -5745,7 +5730,7 @@
         <v>246</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>20</v>
@@ -5820,7 +5805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82C1EE1-C20D-2C48-A4D2-81B505EE9C97}">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -5837,210 +5822,210 @@
   <sheetData>
     <row r="1" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="V1" s="20" t="s">
         <v>502</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>507</v>
       </c>
       <c r="W1" s="21"/>
       <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>726</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>727</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>730</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="K2" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="M2" s="24" t="s">
         <v>731</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>732</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>734</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>735</v>
-      </c>
-      <c r="K2" s="24" t="s">
+      <c r="N2" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q2" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="R2" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="M2" s="24" t="s">
-        <v>736</v>
-      </c>
-      <c r="N2" s="24" t="s">
+      <c r="S2" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="T2" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="U2" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="V2" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="T2" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="U2" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="V2" s="24" t="s">
-        <v>518</v>
       </c>
       <c r="W2" s="21"/>
       <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
+        <v>860</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>865</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>870</v>
-      </c>
       <c r="C3" s="23" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="D3" s="23" t="s">
+        <v>732</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>735</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>736</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="M3" s="24" t="s">
         <v>737</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>738</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>739</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>740</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>741</v>
-      </c>
-      <c r="K3" s="24" t="s">
+      <c r="N3" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q3" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="R3" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="M3" s="24" t="s">
-        <v>742</v>
-      </c>
-      <c r="N3" s="24" t="s">
+      <c r="S3" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="T3" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="U3" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="V3" s="24" t="s">
         <v>524</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>527</v>
-      </c>
-      <c r="U3" s="24" t="s">
-        <v>528</v>
-      </c>
-      <c r="V3" s="24" t="s">
-        <v>529</v>
       </c>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
@@ -6050,61 +6035,61 @@
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23" t="s">
+        <v>738</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>739</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>740</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>741</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>742</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="M4" s="24" t="s">
         <v>743</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>744</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>746</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>747</v>
-      </c>
-      <c r="K4" s="24" t="s">
+      <c r="N4" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q4" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="R4" s="24" t="s">
         <v>531</v>
       </c>
-      <c r="M4" s="24" t="s">
-        <v>748</v>
-      </c>
-      <c r="N4" s="24" t="s">
+      <c r="S4" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="T4" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="U4" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="V4" s="24" t="s">
         <v>535</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="T4" s="24" t="s">
-        <v>538</v>
-      </c>
-      <c r="U4" s="24" t="s">
-        <v>539</v>
-      </c>
-      <c r="V4" s="24" t="s">
-        <v>540</v>
       </c>
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
@@ -6114,61 +6099,61 @@
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>747</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="M5" s="24" t="s">
         <v>749</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>750</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>751</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>752</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>753</v>
-      </c>
-      <c r="K5" s="24" t="s">
+      <c r="N5" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q5" s="24" t="s">
         <v>541</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="R5" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="M5" s="24" t="s">
-        <v>754</v>
-      </c>
-      <c r="N5" s="24" t="s">
+      <c r="S5" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="T5" s="24" t="s">
         <v>544</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="U5" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="V5" s="24" t="s">
         <v>546</v>
-      </c>
-      <c r="R5" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="S5" s="24" t="s">
-        <v>548</v>
-      </c>
-      <c r="T5" s="24" t="s">
-        <v>549</v>
-      </c>
-      <c r="U5" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="V5" s="24" t="s">
-        <v>551</v>
       </c>
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
@@ -6178,61 +6163,61 @@
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
+        <v>750</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>751</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>753</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>754</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="M6" s="24" t="s">
         <v>755</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>756</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>758</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>759</v>
-      </c>
-      <c r="K6" s="24" t="s">
+      <c r="N6" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q6" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="R6" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="M6" s="24" t="s">
-        <v>760</v>
-      </c>
-      <c r="N6" s="24" t="s">
+      <c r="S6" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="T6" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="U6" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="V6" s="24" t="s">
         <v>557</v>
-      </c>
-      <c r="R6" s="24" t="s">
-        <v>558</v>
-      </c>
-      <c r="S6" s="24" t="s">
-        <v>559</v>
-      </c>
-      <c r="T6" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="U6" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="V6" s="24" t="s">
-        <v>562</v>
       </c>
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
@@ -6242,61 +6227,61 @@
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23" t="s">
+        <v>756</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>758</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>759</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>760</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="M7" s="24" t="s">
         <v>761</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>762</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>763</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>764</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>765</v>
-      </c>
-      <c r="K7" s="24" t="s">
+      <c r="N7" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q7" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="R7" s="24" t="s">
         <v>564</v>
       </c>
-      <c r="M7" s="24" t="s">
-        <v>766</v>
-      </c>
-      <c r="N7" s="24" t="s">
+      <c r="S7" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="T7" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="U7" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="V7" s="24" t="s">
         <v>568</v>
-      </c>
-      <c r="R7" s="24" t="s">
-        <v>569</v>
-      </c>
-      <c r="S7" s="24" t="s">
-        <v>570</v>
-      </c>
-      <c r="T7" s="24" t="s">
-        <v>571</v>
-      </c>
-      <c r="U7" s="24" t="s">
-        <v>572</v>
-      </c>
-      <c r="V7" s="24" t="s">
-        <v>573</v>
       </c>
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
@@ -6306,61 +6291,61 @@
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23" t="s">
+        <v>762</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>763</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>765</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>766</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>569</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="M8" s="24" t="s">
         <v>767</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>768</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>769</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>770</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>771</v>
-      </c>
-      <c r="K8" s="24" t="s">
+      <c r="N8" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q8" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="R8" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="M8" s="24" t="s">
-        <v>772</v>
-      </c>
-      <c r="N8" s="24" t="s">
+      <c r="S8" s="24" t="s">
         <v>576</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="T8" s="24" t="s">
         <v>577</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="U8" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="V8" s="24" t="s">
         <v>579</v>
-      </c>
-      <c r="R8" s="24" t="s">
-        <v>580</v>
-      </c>
-      <c r="S8" s="24" t="s">
-        <v>581</v>
-      </c>
-      <c r="T8" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="U8" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="V8" s="24" t="s">
-        <v>584</v>
       </c>
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
@@ -6370,61 +6355,61 @@
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23" t="s">
+        <v>768</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>770</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>771</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="M9" s="24" t="s">
         <v>773</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>774</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>775</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>776</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>777</v>
-      </c>
-      <c r="K9" s="24" t="s">
+      <c r="N9" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q9" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="R9" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="M9" s="24" t="s">
-        <v>778</v>
-      </c>
-      <c r="N9" s="24" t="s">
+      <c r="S9" s="24" t="s">
         <v>587</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="T9" s="24" t="s">
         <v>588</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="U9" s="24" t="s">
         <v>589</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="V9" s="24" t="s">
         <v>590</v>
-      </c>
-      <c r="R9" s="24" t="s">
-        <v>591</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>592</v>
-      </c>
-      <c r="T9" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="V9" s="24" t="s">
-        <v>595</v>
       </c>
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
@@ -6434,61 +6419,61 @@
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>775</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>777</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="M10" s="24" t="s">
         <v>779</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>780</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>781</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>782</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>783</v>
-      </c>
-      <c r="K10" s="24" t="s">
+      <c r="N10" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q10" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="R10" s="24" t="s">
         <v>597</v>
       </c>
-      <c r="M10" s="24" t="s">
-        <v>784</v>
-      </c>
-      <c r="N10" s="24" t="s">
+      <c r="S10" s="24" t="s">
         <v>598</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="T10" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="U10" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="V10" s="24" t="s">
         <v>601</v>
-      </c>
-      <c r="R10" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="S10" s="24" t="s">
-        <v>603</v>
-      </c>
-      <c r="T10" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="U10" s="24" t="s">
-        <v>605</v>
-      </c>
-      <c r="V10" s="24" t="s">
-        <v>606</v>
       </c>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
@@ -6498,761 +6483,761 @@
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
+        <v>780</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>783</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>784</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>785</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>787</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>788</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>789</v>
-      </c>
-      <c r="K11" s="24" t="s">
+      <c r="N11" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q11" s="24" t="s">
         <v>607</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="R11" s="24" t="s">
         <v>608</v>
       </c>
-      <c r="M11" s="24" t="s">
-        <v>790</v>
-      </c>
-      <c r="N11" s="24" t="s">
+      <c r="S11" s="24" t="s">
         <v>609</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="T11" s="24" t="s">
         <v>610</v>
       </c>
-      <c r="P11" s="24" t="s">
+      <c r="U11" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="Q11" s="24" t="s">
+      <c r="V11" s="24" t="s">
         <v>612</v>
-      </c>
-      <c r="R11" s="24" t="s">
-        <v>613</v>
-      </c>
-      <c r="S11" s="24" t="s">
-        <v>614</v>
-      </c>
-      <c r="T11" s="24" t="s">
-        <v>615</v>
-      </c>
-      <c r="U11" s="24" t="s">
-        <v>616</v>
-      </c>
-      <c r="V11" s="24" t="s">
-        <v>617</v>
       </c>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
     </row>
     <row r="12" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="K12" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>790</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q12" s="24" t="s">
         <v>618</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="R12" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="M12" s="24" t="s">
-        <v>795</v>
-      </c>
-      <c r="N12" s="24" t="s">
+      <c r="S12" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="T12" s="24" t="s">
         <v>621</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="U12" s="24" t="s">
         <v>622</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="V12" s="24" t="s">
         <v>623</v>
-      </c>
-      <c r="R12" s="24" t="s">
-        <v>624</v>
-      </c>
-      <c r="S12" s="24" t="s">
-        <v>625</v>
-      </c>
-      <c r="T12" s="24" t="s">
-        <v>626</v>
-      </c>
-      <c r="U12" s="24" t="s">
-        <v>627</v>
-      </c>
-      <c r="V12" s="24" t="s">
-        <v>628</v>
       </c>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
     </row>
     <row r="13" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="K13" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>795</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q13" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="R13" s="24" t="s">
         <v>630</v>
       </c>
-      <c r="M13" s="24" t="s">
-        <v>800</v>
-      </c>
-      <c r="N13" s="24" t="s">
+      <c r="S13" s="24" t="s">
         <v>631</v>
       </c>
-      <c r="O13" s="24" t="s">
+      <c r="T13" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="U13" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="V13" s="24" t="s">
         <v>634</v>
-      </c>
-      <c r="R13" s="24" t="s">
-        <v>635</v>
-      </c>
-      <c r="S13" s="24" t="s">
-        <v>636</v>
-      </c>
-      <c r="T13" s="24" t="s">
-        <v>637</v>
-      </c>
-      <c r="U13" s="24" t="s">
-        <v>638</v>
-      </c>
-      <c r="V13" s="24" t="s">
-        <v>639</v>
       </c>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
     </row>
     <row r="14" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="K14" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q14" s="24" t="s">
         <v>640</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="R14" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="M14" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="N14" s="24" t="s">
+      <c r="S14" s="24" t="s">
         <v>642</v>
       </c>
-      <c r="O14" s="24" t="s">
+      <c r="T14" s="24" t="s">
         <v>643</v>
       </c>
-      <c r="P14" s="24" t="s">
+      <c r="U14" s="24" t="s">
         <v>644</v>
       </c>
-      <c r="Q14" s="24" t="s">
+      <c r="V14" s="24" t="s">
         <v>645</v>
-      </c>
-      <c r="R14" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="S14" s="24" t="s">
-        <v>647</v>
-      </c>
-      <c r="T14" s="24" t="s">
-        <v>648</v>
-      </c>
-      <c r="U14" s="24" t="s">
-        <v>649</v>
-      </c>
-      <c r="V14" s="24" t="s">
-        <v>650</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
     </row>
     <row r="15" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="K15" s="24" t="s">
+        <v>646</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q15" s="24" t="s">
         <v>651</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="R15" s="24" t="s">
         <v>652</v>
       </c>
-      <c r="M15" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="N15" s="24" t="s">
+      <c r="S15" s="24" t="s">
         <v>653</v>
       </c>
-      <c r="O15" s="24" t="s">
+      <c r="T15" s="24" t="s">
         <v>654</v>
       </c>
-      <c r="P15" s="24" t="s">
+      <c r="U15" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="V15" s="24" t="s">
         <v>656</v>
-      </c>
-      <c r="R15" s="24" t="s">
-        <v>657</v>
-      </c>
-      <c r="S15" s="24" t="s">
-        <v>658</v>
-      </c>
-      <c r="T15" s="24" t="s">
-        <v>659</v>
-      </c>
-      <c r="U15" s="24" t="s">
-        <v>660</v>
-      </c>
-      <c r="V15" s="24" t="s">
-        <v>661</v>
       </c>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="K16" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q16" s="24" t="s">
         <v>662</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="R16" s="24" t="s">
         <v>663</v>
       </c>
-      <c r="M16" s="24" t="s">
-        <v>815</v>
-      </c>
-      <c r="N16" s="24" t="s">
+      <c r="S16" s="24" t="s">
         <v>664</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="T16" s="24" t="s">
         <v>665</v>
       </c>
-      <c r="P16" s="24" t="s">
+      <c r="U16" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="V16" s="24" t="s">
         <v>667</v>
-      </c>
-      <c r="R16" s="24" t="s">
-        <v>668</v>
-      </c>
-      <c r="S16" s="24" t="s">
-        <v>669</v>
-      </c>
-      <c r="T16" s="24" t="s">
-        <v>670</v>
-      </c>
-      <c r="U16" s="24" t="s">
-        <v>671</v>
-      </c>
-      <c r="V16" s="24" t="s">
-        <v>672</v>
       </c>
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
     </row>
     <row r="17" spans="1:24" ht="80" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="K17" s="24" t="s">
+        <v>668</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>815</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>671</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q17" s="24" t="s">
         <v>673</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="R17" s="24" t="s">
         <v>674</v>
       </c>
-      <c r="M17" s="24" t="s">
-        <v>820</v>
-      </c>
-      <c r="N17" s="24" t="s">
+      <c r="S17" s="24" t="s">
         <v>675</v>
       </c>
-      <c r="O17" s="24" t="s">
+      <c r="T17" s="24" t="s">
         <v>676</v>
       </c>
-      <c r="P17" s="24" t="s">
+      <c r="U17" s="24" t="s">
         <v>677</v>
       </c>
-      <c r="Q17" s="24" t="s">
+      <c r="V17" s="24" t="s">
         <v>678</v>
-      </c>
-      <c r="R17" s="24" t="s">
-        <v>679</v>
-      </c>
-      <c r="S17" s="24" t="s">
-        <v>680</v>
-      </c>
-      <c r="T17" s="24" t="s">
-        <v>681</v>
-      </c>
-      <c r="U17" s="24" t="s">
-        <v>682</v>
-      </c>
-      <c r="V17" s="24" t="s">
-        <v>683</v>
       </c>
       <c r="W17" s="21"/>
       <c r="X17" s="21"/>
     </row>
     <row r="18" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="K18" s="24" t="s">
+        <v>679</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>680</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>681</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>682</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q18" s="24" t="s">
         <v>684</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="R18" s="24" t="s">
         <v>685</v>
       </c>
-      <c r="M18" s="24" t="s">
-        <v>825</v>
-      </c>
-      <c r="N18" s="24" t="s">
+      <c r="S18" s="24" t="s">
         <v>686</v>
       </c>
-      <c r="O18" s="24" t="s">
+      <c r="T18" s="24" t="s">
         <v>687</v>
       </c>
-      <c r="P18" s="24" t="s">
+      <c r="U18" s="24" t="s">
         <v>688</v>
       </c>
-      <c r="Q18" s="24" t="s">
+      <c r="V18" s="24" t="s">
         <v>689</v>
-      </c>
-      <c r="R18" s="24" t="s">
-        <v>690</v>
-      </c>
-      <c r="S18" s="24" t="s">
-        <v>691</v>
-      </c>
-      <c r="T18" s="24" t="s">
-        <v>692</v>
-      </c>
-      <c r="U18" s="24" t="s">
-        <v>693</v>
-      </c>
-      <c r="V18" s="24" t="s">
-        <v>694</v>
       </c>
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
     </row>
     <row r="19" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="K19" s="24" t="s">
+        <v>690</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>691</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>692</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>693</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q19" s="24" t="s">
         <v>695</v>
       </c>
-      <c r="L19" s="24" t="s">
+      <c r="R19" s="24" t="s">
         <v>696</v>
       </c>
-      <c r="M19" s="24" t="s">
-        <v>830</v>
-      </c>
-      <c r="N19" s="24" t="s">
+      <c r="S19" s="24" t="s">
         <v>697</v>
       </c>
-      <c r="O19" s="24" t="s">
+      <c r="T19" s="24" t="s">
         <v>698</v>
       </c>
-      <c r="P19" s="24" t="s">
+      <c r="U19" s="24" t="s">
         <v>699</v>
       </c>
-      <c r="Q19" s="24" t="s">
+      <c r="V19" s="24" t="s">
         <v>700</v>
-      </c>
-      <c r="R19" s="24" t="s">
-        <v>701</v>
-      </c>
-      <c r="S19" s="24" t="s">
-        <v>702</v>
-      </c>
-      <c r="T19" s="24" t="s">
-        <v>703</v>
-      </c>
-      <c r="U19" s="24" t="s">
-        <v>704</v>
-      </c>
-      <c r="V19" s="24" t="s">
-        <v>705</v>
       </c>
       <c r="W19" s="21"/>
       <c r="X19" s="21"/>
     </row>
     <row r="20" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="K20" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>702</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>703</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>704</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q20" s="24" t="s">
         <v>706</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="R20" s="24" t="s">
         <v>707</v>
       </c>
-      <c r="M20" s="24" t="s">
-        <v>835</v>
-      </c>
-      <c r="N20" s="24" t="s">
+      <c r="S20" s="24" t="s">
         <v>708</v>
       </c>
-      <c r="O20" s="24" t="s">
+      <c r="T20" s="24" t="s">
         <v>709</v>
       </c>
-      <c r="P20" s="24" t="s">
+      <c r="U20" s="24" t="s">
         <v>710</v>
       </c>
-      <c r="Q20" s="24" t="s">
+      <c r="V20" s="24" t="s">
         <v>711</v>
-      </c>
-      <c r="R20" s="24" t="s">
-        <v>712</v>
-      </c>
-      <c r="S20" s="24" t="s">
-        <v>713</v>
-      </c>
-      <c r="T20" s="24" t="s">
-        <v>714</v>
-      </c>
-      <c r="U20" s="24" t="s">
-        <v>715</v>
-      </c>
-      <c r="V20" s="24" t="s">
-        <v>716</v>
       </c>
       <c r="W20" s="21"/>
       <c r="X20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="K21" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>713</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>835</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q21" s="24" t="s">
         <v>717</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="R21" s="24" t="s">
         <v>718</v>
       </c>
-      <c r="M21" s="24" t="s">
-        <v>840</v>
-      </c>
-      <c r="N21" s="24" t="s">
+      <c r="S21" s="24" t="s">
         <v>719</v>
       </c>
-      <c r="O21" s="24" t="s">
+      <c r="T21" s="24" t="s">
         <v>720</v>
       </c>
-      <c r="P21" s="24" t="s">
+      <c r="U21" s="24" t="s">
         <v>721</v>
       </c>
-      <c r="Q21" s="24" t="s">
+      <c r="V21" s="24" t="s">
         <v>722</v>
-      </c>
-      <c r="R21" s="24" t="s">
-        <v>723</v>
-      </c>
-      <c r="S21" s="24" t="s">
-        <v>724</v>
-      </c>
-      <c r="T21" s="24" t="s">
-        <v>725</v>
-      </c>
-      <c r="U21" s="24" t="s">
-        <v>726</v>
-      </c>
-      <c r="V21" s="24" t="s">
-        <v>727</v>
       </c>
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
@@ -7319,7 +7304,7 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7346,10 +7331,10 @@
         <v>233</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>274</v>
@@ -7476,7 +7461,7 @@
         <v>68</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7487,7 +7472,7 @@
         <v>290</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>275</v>
@@ -7528,10 +7513,10 @@
         <v>233</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>274</v>
@@ -7563,7 +7548,7 @@
         <v>265</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>387</v>
@@ -7658,7 +7643,7 @@
         <v>68</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7669,10 +7654,10 @@
         <v>265</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>426</v>
+        <v>275</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>20</v>
@@ -7696,7 +7681,7 @@
         <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7710,10 +7695,10 @@
         <v>233</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>274</v>
@@ -7745,7 +7730,7 @@
         <v>265</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>387</v>
@@ -7754,7 +7739,7 @@
         <v>391</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -7840,7 +7825,7 @@
         <v>68</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7851,10 +7836,10 @@
         <v>265</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>427</v>
+        <v>275</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>20</v>
@@ -7869,7 +7854,7 @@
         <v>133</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>164</v>
@@ -7878,7 +7863,7 @@
         <v>69</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7892,10 +7877,10 @@
         <v>233</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>274</v>
@@ -7927,7 +7912,7 @@
         <v>265</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>387</v>
@@ -7936,7 +7921,7 @@
         <v>392</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -8022,7 +8007,7 @@
         <v>68</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8033,10 +8018,10 @@
         <v>265</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>435</v>
+        <v>275</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>20</v>
@@ -8051,7 +8036,7 @@
         <v>134</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>164</v>
@@ -8060,7 +8045,7 @@
         <v>69</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8074,10 +8059,10 @@
         <v>233</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>274</v>
@@ -8112,7 +8097,7 @@
         <v>265</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>387</v>
@@ -8121,7 +8106,7 @@
         <v>393</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -8214,7 +8199,7 @@
         <v>68</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8225,10 +8210,10 @@
         <v>265</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>436</v>
+        <v>275</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>20</v>
@@ -8243,7 +8228,7 @@
         <v>135</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>164</v>
@@ -8252,7 +8237,7 @@
         <v>69</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8266,10 +8251,10 @@
         <v>233</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>274</v>
@@ -8313,7 +8298,7 @@
         <v>394</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -8417,10 +8402,10 @@
         <v>265</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>444</v>
+        <v>275</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>20</v>
@@ -8435,7 +8420,7 @@
         <v>136</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>164</v>
@@ -8444,7 +8429,7 @@
         <v>69</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8458,10 +8443,10 @@
         <v>233</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>274</v>
@@ -8496,7 +8481,7 @@
         <v>265</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>387</v>
@@ -8505,7 +8490,7 @@
         <v>395</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -8598,7 +8583,7 @@
         <v>68</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8609,10 +8594,10 @@
         <v>265</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>20</v>
@@ -8627,7 +8612,7 @@
         <v>137</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="J60" s="11" t="s">
         <v>164</v>
@@ -8636,7 +8621,7 @@
         <v>69</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8650,10 +8635,10 @@
         <v>233</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>274</v>
@@ -8697,7 +8682,7 @@
         <v>396</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -8790,7 +8775,7 @@
         <v>68</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8801,10 +8786,10 @@
         <v>265</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>20</v>
@@ -8819,7 +8804,7 @@
         <v>138</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J69" s="11" t="s">
         <v>164</v>
@@ -8828,7 +8813,7 @@
         <v>69</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -12164,7 +12149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA0C999-B51D-B945-AD16-6B65491DFEFD}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>

--- a/ExPECA-HW-Discovery.xlsx
+++ b/ExPECA-HW-Discovery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmos/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9445048-2380-744D-819C-6136E35EE9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B66A220-E990-0545-A4A3-890A55C692B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Telenor Network" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="873">
   <si>
     <t>Dell PowerEdge R750xs</t>
   </si>
@@ -1225,12 +1225,6 @@
     <t>P02516992h</t>
   </si>
   <si>
-    <t>EXPECA-003</t>
-  </si>
-  <si>
-    <t>EXPECA-001</t>
-  </si>
-  <si>
     <t>patch-panel-01.port-14, poe-switch-01.port-05, poe-switch-01.port-06</t>
   </si>
   <si>
@@ -1288,15 +1282,9 @@
     <t>patch-panel-02.port-01</t>
   </si>
   <si>
-    <t>5G IP Address</t>
-  </si>
-  <si>
     <t>172.16.0.8</t>
   </si>
   <si>
-    <t>EXPECA-000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -1318,27 +1306,15 @@
     <t>te2/0/19</t>
   </si>
   <si>
-    <t>EXPECA-005</t>
-  </si>
-  <si>
     <t>172.16.0.40</t>
   </si>
   <si>
-    <t>EXPECA-011</t>
-  </si>
-  <si>
-    <t>EXPECA-006</t>
-  </si>
-  <si>
     <t>172.16.0.96</t>
   </si>
   <si>
     <t>172.16.0.64</t>
   </si>
   <si>
-    <t>EXPECA-002</t>
-  </si>
-  <si>
     <t>patch-panel-02.port-11 (REVERSE)</t>
   </si>
   <si>
@@ -1375,9 +1351,6 @@
     <t>172.16.0.104</t>
   </si>
   <si>
-    <t>EXPECA-007</t>
-  </si>
-  <si>
     <t>172.16.0.56</t>
   </si>
   <si>
@@ -2645,6 +2618,39 @@
   </si>
   <si>
     <t>Advantech-07</t>
+  </si>
+  <si>
+    <t>SIMCARD1 IMSI</t>
+  </si>
+  <si>
+    <t>SIMCARD2 IMSI</t>
+  </si>
+  <si>
+    <t>EP5G IP Address</t>
+  </si>
+  <si>
+    <t>999080000000001</t>
+  </si>
+  <si>
+    <t>999080000000009</t>
+  </si>
+  <si>
+    <t>999080000000099</t>
+  </si>
+  <si>
+    <t>999080000000010</t>
+  </si>
+  <si>
+    <t>999080000000006</t>
+  </si>
+  <si>
+    <t>999080000000007</t>
+  </si>
+  <si>
+    <t>999080000000011</t>
+  </si>
+  <si>
+    <t>999080000000005</t>
   </si>
 </sst>
 </file>
@@ -2853,7 +2859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2914,6 +2920,27 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3219,13 +3246,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3233,16 +3260,16 @@
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C2" s="4">
         <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
@@ -3256,7 +3283,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>261</v>
@@ -3291,13 +3318,13 @@
         <v>272</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
@@ -3309,7 +3336,7 @@
         <v>196</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="I5" s="3">
         <v>140</v>
@@ -3321,7 +3348,7 @@
         <v>69</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3357,13 +3384,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3371,16 +3398,16 @@
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C2" s="4">
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
@@ -3394,7 +3421,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>261</v>
@@ -3426,16 +3453,16 @@
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
@@ -3447,19 +3474,19 @@
         <v>195</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="I5" s="3">
         <v>150</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>69</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3495,10 +3522,10 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3507,10 +3534,10 @@
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C2" s="4">
         <v>4</v>
@@ -3528,7 +3555,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>261</v>
@@ -3563,13 +3590,13 @@
         <v>242</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
@@ -3581,7 +3608,7 @@
         <v>66</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="I5" s="3">
         <v>100</v>
@@ -3593,7 +3620,7 @@
         <v>69</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3601,13 +3628,13 @@
         <v>243</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
@@ -3619,7 +3646,7 @@
         <v>66</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="I6" s="3">
         <v>100</v>
@@ -3631,7 +3658,7 @@
         <v>69</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3644,7 +3671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DF0E2B-725B-3247-9FD1-11D5F10AA821}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
@@ -3705,7 +3732,7 @@
         <v>235</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3772,7 +3799,7 @@
         <v>249</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>167</v>
@@ -3819,7 +3846,7 @@
         <v>69</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3903,7 +3930,7 @@
         <v>235</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3970,7 +3997,7 @@
         <v>367</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>167</v>
@@ -3979,7 +4006,7 @@
         <v>68</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4017,7 +4044,7 @@
         <v>69</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4055,7 +4082,7 @@
         <v>69</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -4104,7 +4131,7 @@
         <v>235</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4171,7 +4198,7 @@
         <v>377</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>167</v>
@@ -4180,7 +4207,7 @@
         <v>68</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4218,7 +4245,7 @@
         <v>69</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4256,7 +4283,7 @@
         <v>69</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4307,7 +4334,7 @@
         <v>235</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -4391,7 +4418,7 @@
         <v>378</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>167</v>
@@ -4400,7 +4427,7 @@
         <v>68</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4438,7 +4465,7 @@
         <v>69</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4476,7 +4503,7 @@
         <v>69</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4525,7 +4552,7 @@
         <v>235</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
@@ -4611,7 +4638,7 @@
         <v>379</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>167</v>
@@ -4620,7 +4647,7 @@
         <v>68</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4658,7 +4685,7 @@
         <v>69</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4696,7 +4723,7 @@
         <v>69</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4745,7 +4772,7 @@
         <v>235</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
@@ -4831,7 +4858,7 @@
         <v>380</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>167</v>
@@ -4840,7 +4867,7 @@
         <v>68</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4878,7 +4905,7 @@
         <v>69</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4916,7 +4943,7 @@
         <v>69</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4965,7 +4992,7 @@
         <v>235</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
@@ -5051,7 +5078,7 @@
         <v>381</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>167</v>
@@ -5060,7 +5087,7 @@
         <v>68</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5098,7 +5125,7 @@
         <v>69</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5136,7 +5163,7 @@
         <v>69</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5185,7 +5212,7 @@
         <v>235</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -5269,7 +5296,7 @@
         <v>382</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>167</v>
@@ -5278,7 +5305,7 @@
         <v>68</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5316,7 +5343,7 @@
         <v>69</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5354,7 +5381,7 @@
         <v>69</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5403,7 +5430,7 @@
         <v>235</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="H82" s="16"/>
       <c r="I82" s="16"/>
@@ -5489,7 +5516,7 @@
         <v>383</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>167</v>
@@ -5498,7 +5525,7 @@
         <v>68</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5536,7 +5563,7 @@
         <v>69</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5574,7 +5601,7 @@
         <v>69</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5623,7 +5650,7 @@
         <v>235</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -5707,7 +5734,7 @@
         <v>384</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>167</v>
@@ -5716,7 +5743,7 @@
         <v>68</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5754,7 +5781,7 @@
         <v>69</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5792,7 +5819,7 @@
         <v>69</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -5806,7 +5833,7 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5822,210 +5849,210 @@
   <sheetData>
     <row r="1" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="N1" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="V1" s="20" t="s">
         <v>493</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>502</v>
       </c>
       <c r="W1" s="21"/>
       <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="K2" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>722</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="U2" s="24" t="s">
         <v>503</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="V2" s="24" t="s">
         <v>504</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>731</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="T2" s="24" t="s">
-        <v>511</v>
-      </c>
-      <c r="U2" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="V2" s="24" t="s">
-        <v>513</v>
       </c>
       <c r="W2" s="21"/>
       <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="G3" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>726</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>727</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="M3" s="24" t="s">
         <v>728</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>735</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>728</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>736</v>
-      </c>
-      <c r="K3" s="24" t="s">
+      <c r="N3" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="U3" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="V3" s="24" t="s">
         <v>515</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>737</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="U3" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="V3" s="24" t="s">
-        <v>524</v>
       </c>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
@@ -6035,61 +6062,61 @@
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="K4" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="U4" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="V4" s="24" t="s">
         <v>526</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>743</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>527</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>528</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>531</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>532</v>
-      </c>
-      <c r="T4" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="U4" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="V4" s="24" t="s">
-        <v>535</v>
       </c>
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
@@ -6099,61 +6126,61 @@
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="K5" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>740</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="U5" s="24" t="s">
         <v>536</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="V5" s="24" t="s">
         <v>537</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>749</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>538</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>539</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q5" s="24" t="s">
-        <v>541</v>
-      </c>
-      <c r="R5" s="24" t="s">
-        <v>542</v>
-      </c>
-      <c r="S5" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="T5" s="24" t="s">
-        <v>544</v>
-      </c>
-      <c r="U5" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="V5" s="24" t="s">
-        <v>546</v>
       </c>
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
@@ -6163,61 +6190,61 @@
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="K6" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="U6" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="V6" s="24" t="s">
         <v>548</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>755</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>549</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="R6" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="S6" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="T6" s="24" t="s">
-        <v>555</v>
-      </c>
-      <c r="U6" s="24" t="s">
-        <v>556</v>
-      </c>
-      <c r="V6" s="24" t="s">
-        <v>557</v>
       </c>
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
@@ -6227,61 +6254,61 @@
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="K7" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="U7" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="V7" s="24" t="s">
         <v>559</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>761</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q7" s="24" t="s">
-        <v>563</v>
-      </c>
-      <c r="R7" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="S7" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="T7" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="U7" s="24" t="s">
-        <v>567</v>
-      </c>
-      <c r="V7" s="24" t="s">
-        <v>568</v>
       </c>
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
@@ -6291,61 +6318,61 @@
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="K8" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>758</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="U8" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="V8" s="24" t="s">
         <v>570</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>767</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>571</v>
-      </c>
-      <c r="O8" s="24" t="s">
-        <v>572</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q8" s="24" t="s">
-        <v>574</v>
-      </c>
-      <c r="R8" s="24" t="s">
-        <v>575</v>
-      </c>
-      <c r="S8" s="24" t="s">
-        <v>576</v>
-      </c>
-      <c r="T8" s="24" t="s">
-        <v>577</v>
-      </c>
-      <c r="U8" s="24" t="s">
-        <v>578</v>
-      </c>
-      <c r="V8" s="24" t="s">
-        <v>579</v>
       </c>
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
@@ -6355,61 +6382,61 @@
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="K9" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>577</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="T9" s="24" t="s">
+        <v>579</v>
+      </c>
+      <c r="U9" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="V9" s="24" t="s">
         <v>581</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>773</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="R9" s="24" t="s">
-        <v>586</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>587</v>
-      </c>
-      <c r="T9" s="24" t="s">
-        <v>588</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>589</v>
-      </c>
-      <c r="V9" s="24" t="s">
-        <v>590</v>
       </c>
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
@@ -6419,61 +6446,61 @@
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="K10" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>770</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="U10" s="24" t="s">
         <v>591</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="V10" s="24" t="s">
         <v>592</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>779</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q10" s="24" t="s">
-        <v>596</v>
-      </c>
-      <c r="R10" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="S10" s="24" t="s">
-        <v>598</v>
-      </c>
-      <c r="T10" s="24" t="s">
-        <v>599</v>
-      </c>
-      <c r="U10" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="V10" s="24" t="s">
-        <v>601</v>
       </c>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
@@ -6483,761 +6510,761 @@
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K11" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="U11" s="24" t="s">
         <v>602</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="V11" s="24" t="s">
         <v>603</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>785</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>605</v>
-      </c>
-      <c r="P11" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q11" s="24" t="s">
-        <v>607</v>
-      </c>
-      <c r="R11" s="24" t="s">
-        <v>608</v>
-      </c>
-      <c r="S11" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="T11" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="U11" s="24" t="s">
-        <v>611</v>
-      </c>
-      <c r="V11" s="24" t="s">
-        <v>612</v>
       </c>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
     </row>
     <row r="12" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="K12" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="T12" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="U12" s="24" t="s">
         <v>613</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="V12" s="24" t="s">
         <v>614</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>790</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>615</v>
-      </c>
-      <c r="O12" s="24" t="s">
-        <v>616</v>
-      </c>
-      <c r="P12" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q12" s="24" t="s">
-        <v>618</v>
-      </c>
-      <c r="R12" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="S12" s="24" t="s">
-        <v>620</v>
-      </c>
-      <c r="T12" s="24" t="s">
-        <v>621</v>
-      </c>
-      <c r="U12" s="24" t="s">
-        <v>622</v>
-      </c>
-      <c r="V12" s="24" t="s">
-        <v>623</v>
       </c>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
     </row>
     <row r="13" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
+        <v>849</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>858</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>867</v>
-      </c>
       <c r="C13" s="23" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="K13" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="T13" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="U13" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="V13" s="24" t="s">
         <v>625</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>795</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>626</v>
-      </c>
-      <c r="O13" s="24" t="s">
-        <v>627</v>
-      </c>
-      <c r="P13" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="Q13" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="R13" s="24" t="s">
-        <v>630</v>
-      </c>
-      <c r="S13" s="24" t="s">
-        <v>631</v>
-      </c>
-      <c r="T13" s="24" t="s">
-        <v>632</v>
-      </c>
-      <c r="U13" s="24" t="s">
-        <v>633</v>
-      </c>
-      <c r="V13" s="24" t="s">
-        <v>634</v>
       </c>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
     </row>
     <row r="14" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="K14" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>791</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>633</v>
+      </c>
+      <c r="T14" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="U14" s="24" t="s">
         <v>635</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="V14" s="24" t="s">
         <v>636</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>800</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>637</v>
-      </c>
-      <c r="O14" s="24" t="s">
-        <v>638</v>
-      </c>
-      <c r="P14" s="24" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q14" s="24" t="s">
-        <v>640</v>
-      </c>
-      <c r="R14" s="24" t="s">
-        <v>641</v>
-      </c>
-      <c r="S14" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="T14" s="24" t="s">
-        <v>643</v>
-      </c>
-      <c r="U14" s="24" t="s">
-        <v>644</v>
-      </c>
-      <c r="V14" s="24" t="s">
-        <v>645</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
     </row>
     <row r="15" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="K15" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>639</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>643</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>644</v>
+      </c>
+      <c r="T15" s="24" t="s">
+        <v>645</v>
+      </c>
+      <c r="U15" s="24" t="s">
         <v>646</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="V15" s="24" t="s">
         <v>647</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>648</v>
-      </c>
-      <c r="O15" s="24" t="s">
-        <v>649</v>
-      </c>
-      <c r="P15" s="24" t="s">
-        <v>650</v>
-      </c>
-      <c r="Q15" s="24" t="s">
-        <v>651</v>
-      </c>
-      <c r="R15" s="24" t="s">
-        <v>652</v>
-      </c>
-      <c r="S15" s="24" t="s">
-        <v>653</v>
-      </c>
-      <c r="T15" s="24" t="s">
-        <v>654</v>
-      </c>
-      <c r="U15" s="24" t="s">
-        <v>655</v>
-      </c>
-      <c r="V15" s="24" t="s">
-        <v>656</v>
       </c>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="K16" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>653</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="S16" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="T16" s="24" t="s">
+        <v>656</v>
+      </c>
+      <c r="U16" s="24" t="s">
         <v>657</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="V16" s="24" t="s">
         <v>658</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>659</v>
-      </c>
-      <c r="O16" s="24" t="s">
-        <v>660</v>
-      </c>
-      <c r="P16" s="24" t="s">
-        <v>661</v>
-      </c>
-      <c r="Q16" s="24" t="s">
-        <v>662</v>
-      </c>
-      <c r="R16" s="24" t="s">
-        <v>663</v>
-      </c>
-      <c r="S16" s="24" t="s">
-        <v>664</v>
-      </c>
-      <c r="T16" s="24" t="s">
-        <v>665</v>
-      </c>
-      <c r="U16" s="24" t="s">
-        <v>666</v>
-      </c>
-      <c r="V16" s="24" t="s">
-        <v>667</v>
       </c>
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
     </row>
     <row r="17" spans="1:24" ht="80" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="K17" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>806</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>662</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="S17" s="24" t="s">
+        <v>666</v>
+      </c>
+      <c r="T17" s="24" t="s">
+        <v>667</v>
+      </c>
+      <c r="U17" s="24" t="s">
         <v>668</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="V17" s="24" t="s">
         <v>669</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>815</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>670</v>
-      </c>
-      <c r="O17" s="24" t="s">
-        <v>671</v>
-      </c>
-      <c r="P17" s="24" t="s">
-        <v>672</v>
-      </c>
-      <c r="Q17" s="24" t="s">
-        <v>673</v>
-      </c>
-      <c r="R17" s="24" t="s">
-        <v>674</v>
-      </c>
-      <c r="S17" s="24" t="s">
-        <v>675</v>
-      </c>
-      <c r="T17" s="24" t="s">
-        <v>676</v>
-      </c>
-      <c r="U17" s="24" t="s">
-        <v>677</v>
-      </c>
-      <c r="V17" s="24" t="s">
-        <v>678</v>
       </c>
       <c r="W17" s="21"/>
       <c r="X17" s="21"/>
     </row>
     <row r="18" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>862</v>
-      </c>
       <c r="C18" s="23" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="K18" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>671</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>672</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>675</v>
+      </c>
+      <c r="R18" s="24" t="s">
+        <v>676</v>
+      </c>
+      <c r="S18" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="T18" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="U18" s="24" t="s">
         <v>679</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="V18" s="24" t="s">
         <v>680</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>820</v>
-      </c>
-      <c r="N18" s="24" t="s">
-        <v>681</v>
-      </c>
-      <c r="O18" s="24" t="s">
-        <v>682</v>
-      </c>
-      <c r="P18" s="24" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q18" s="24" t="s">
-        <v>684</v>
-      </c>
-      <c r="R18" s="24" t="s">
-        <v>685</v>
-      </c>
-      <c r="S18" s="24" t="s">
-        <v>686</v>
-      </c>
-      <c r="T18" s="24" t="s">
-        <v>687</v>
-      </c>
-      <c r="U18" s="24" t="s">
-        <v>688</v>
-      </c>
-      <c r="V18" s="24" t="s">
-        <v>689</v>
       </c>
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
     </row>
     <row r="19" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="K19" s="24" t="s">
+        <v>681</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>682</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>683</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>684</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>686</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>687</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>688</v>
+      </c>
+      <c r="T19" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="U19" s="24" t="s">
         <v>690</v>
       </c>
-      <c r="L19" s="24" t="s">
+      <c r="V19" s="24" t="s">
         <v>691</v>
-      </c>
-      <c r="M19" s="24" t="s">
-        <v>825</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>692</v>
-      </c>
-      <c r="O19" s="24" t="s">
-        <v>693</v>
-      </c>
-      <c r="P19" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="Q19" s="24" t="s">
-        <v>695</v>
-      </c>
-      <c r="R19" s="24" t="s">
-        <v>696</v>
-      </c>
-      <c r="S19" s="24" t="s">
-        <v>697</v>
-      </c>
-      <c r="T19" s="24" t="s">
-        <v>698</v>
-      </c>
-      <c r="U19" s="24" t="s">
-        <v>699</v>
-      </c>
-      <c r="V19" s="24" t="s">
-        <v>700</v>
       </c>
       <c r="W19" s="21"/>
       <c r="X19" s="21"/>
     </row>
     <row r="20" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="K20" s="24" t="s">
+        <v>692</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>693</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>821</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>694</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>695</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>697</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>698</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="T20" s="24" t="s">
+        <v>700</v>
+      </c>
+      <c r="U20" s="24" t="s">
         <v>701</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="V20" s="24" t="s">
         <v>702</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>830</v>
-      </c>
-      <c r="N20" s="24" t="s">
-        <v>703</v>
-      </c>
-      <c r="O20" s="24" t="s">
-        <v>704</v>
-      </c>
-      <c r="P20" s="24" t="s">
-        <v>705</v>
-      </c>
-      <c r="Q20" s="24" t="s">
-        <v>706</v>
-      </c>
-      <c r="R20" s="24" t="s">
-        <v>707</v>
-      </c>
-      <c r="S20" s="24" t="s">
-        <v>708</v>
-      </c>
-      <c r="T20" s="24" t="s">
-        <v>709</v>
-      </c>
-      <c r="U20" s="24" t="s">
-        <v>710</v>
-      </c>
-      <c r="V20" s="24" t="s">
-        <v>711</v>
       </c>
       <c r="W20" s="21"/>
       <c r="X20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="100" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="K21" s="24" t="s">
+        <v>703</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>704</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>705</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>706</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>708</v>
+      </c>
+      <c r="R21" s="24" t="s">
+        <v>709</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="T21" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="U21" s="24" t="s">
         <v>712</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="V21" s="24" t="s">
         <v>713</v>
-      </c>
-      <c r="M21" s="24" t="s">
-        <v>835</v>
-      </c>
-      <c r="N21" s="24" t="s">
-        <v>714</v>
-      </c>
-      <c r="O21" s="24" t="s">
-        <v>715</v>
-      </c>
-      <c r="P21" s="24" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q21" s="24" t="s">
-        <v>717</v>
-      </c>
-      <c r="R21" s="24" t="s">
-        <v>718</v>
-      </c>
-      <c r="S21" s="24" t="s">
-        <v>719</v>
-      </c>
-      <c r="T21" s="24" t="s">
-        <v>720</v>
-      </c>
-      <c r="U21" s="24" t="s">
-        <v>721</v>
-      </c>
-      <c r="V21" s="24" t="s">
-        <v>722</v>
       </c>
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
@@ -7303,8 +7330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026BCBCE-4CBD-7246-9A76-5F67393CE992}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7314,8 +7341,10 @@
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="9" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="19" customWidth="1"/>
+    <col min="8" max="9" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="25.6640625" customWidth="1"/>
     <col min="12" max="12" width="56.6640625" customWidth="1"/>
   </cols>
@@ -7331,22 +7360,25 @@
         <v>233</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>862</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>863</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>418</v>
+      <c r="J1" s="1" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7365,17 +7397,20 @@
       <c r="E2" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="26" t="s">
+        <v>865</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>832</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>419</v>
+      <c r="J2" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -7384,8 +7419,8 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7404,10 +7439,10 @@
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="25" t="s">
         <v>151</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -7442,17 +7477,17 @@
       <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="26">
         <v>1500</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="26" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>167</v>
@@ -7461,7 +7496,7 @@
         <v>68</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7472,7 +7507,7 @@
         <v>290</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>275</v>
@@ -7480,17 +7515,17 @@
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="26">
         <v>9000</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="26" t="s">
         <v>179</v>
       </c>
       <c r="H6" s="3">
         <v>131</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>164</v>
@@ -7499,7 +7534,7 @@
         <v>69</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7513,22 +7548,25 @@
         <v>233</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>862</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>863</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>418</v>
+      <c r="J10" s="1" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7547,17 +7585,20 @@
       <c r="E11" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="26" t="s">
+        <v>866</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>838</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>424</v>
+      <c r="J11" s="3" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -7566,8 +7607,8 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7586,10 +7627,10 @@
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="25" t="s">
         <v>151</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -7624,17 +7665,17 @@
       <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="26">
         <v>1500</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="26" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>167</v>
@@ -7643,7 +7684,7 @@
         <v>68</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7654,7 +7695,7 @@
         <v>265</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>275</v>
@@ -7662,17 +7703,17 @@
       <c r="E15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="26">
         <v>9000</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="26" t="s">
         <v>179</v>
       </c>
       <c r="H15" s="3">
         <v>132</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>164</v>
@@ -7681,7 +7722,7 @@
         <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7695,22 +7736,25 @@
         <v>233</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>862</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>863</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>418</v>
+      <c r="J19" s="1" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7729,17 +7773,20 @@
       <c r="E20" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="31" t="s">
+        <v>867</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>837</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>429</v>
+      <c r="J20" s="3" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -7748,8 +7795,8 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7768,10 +7815,10 @@
       <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="25" t="s">
         <v>151</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -7806,17 +7853,17 @@
       <c r="E23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="26">
         <v>1500</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="26" t="s">
         <v>65</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>167</v>
@@ -7825,7 +7872,7 @@
         <v>68</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7836,7 +7883,7 @@
         <v>265</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>275</v>
@@ -7844,17 +7891,17 @@
       <c r="E24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="26">
         <v>9000</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="26" t="s">
         <v>179</v>
       </c>
       <c r="H24" s="3">
         <v>133</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>164</v>
@@ -7863,7 +7910,7 @@
         <v>69</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7877,22 +7924,25 @@
         <v>233</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G28" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>862</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>863</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>418</v>
+      <c r="J28" s="1" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7911,17 +7961,20 @@
       <c r="E29" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>836</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>432</v>
+      <c r="J29" s="3" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -7930,8 +7983,8 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -7950,10 +8003,10 @@
       <c r="E31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="25" t="s">
         <v>151</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -7988,17 +8041,17 @@
       <c r="E32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="26">
         <v>1500</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="26" t="s">
         <v>65</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>167</v>
@@ -8007,7 +8060,7 @@
         <v>68</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8018,7 +8071,7 @@
         <v>265</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>275</v>
@@ -8026,17 +8079,17 @@
       <c r="E33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="26">
         <v>9000</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="26" t="s">
         <v>179</v>
       </c>
       <c r="H33" s="3">
         <v>134</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>164</v>
@@ -8045,7 +8098,7 @@
         <v>69</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8059,24 +8112,26 @@
         <v>233</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G37" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>863</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="J37" s="8"/>
+      <c r="J37" s="1" t="s">
+        <v>864</v>
+      </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
@@ -8096,19 +8151,21 @@
       <c r="E38" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="F38" s="31" t="s">
+        <v>869</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>835</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="J38" s="8"/>
+      <c r="J38" s="3" t="s">
+        <v>426</v>
+      </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
@@ -8118,8 +8175,8 @@
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="12"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -8142,10 +8199,10 @@
       <c r="E40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="29" t="s">
         <v>151</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -8180,17 +8237,17 @@
       <c r="E41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="30">
         <v>1500</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="30" t="s">
         <v>65</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>167</v>
@@ -8199,7 +8256,7 @@
         <v>68</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8210,7 +8267,7 @@
         <v>265</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>275</v>
@@ -8218,17 +8275,17 @@
       <c r="E42" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="30">
         <v>9000</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="30" t="s">
         <v>179</v>
       </c>
       <c r="H42" s="3">
         <v>135</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>164</v>
@@ -8237,7 +8294,7 @@
         <v>69</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8251,24 +8308,26 @@
         <v>233</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G46" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>863</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="J46" s="8"/>
+      <c r="J46" s="1" t="s">
+        <v>864</v>
+      </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
@@ -8288,19 +8347,21 @@
       <c r="E47" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="F47" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>833</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="J47" s="8"/>
+      <c r="J47" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
     </row>
@@ -8310,8 +8371,8 @@
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="12"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -8334,10 +8395,10 @@
       <c r="E49" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="29" t="s">
         <v>151</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -8372,17 +8433,17 @@
       <c r="E50" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="30">
         <v>1500</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="30" t="s">
         <v>65</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>167</v>
@@ -8391,7 +8452,7 @@
         <v>68</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8402,7 +8463,7 @@
         <v>265</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>275</v>
@@ -8410,17 +8471,17 @@
       <c r="E51" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="30">
         <v>9000</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="30" t="s">
         <v>179</v>
       </c>
       <c r="H51" s="3">
         <v>136</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>164</v>
@@ -8429,7 +8490,7 @@
         <v>69</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8443,24 +8504,26 @@
         <v>233</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G55" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>863</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="J55" s="8"/>
+      <c r="J55" s="1" t="s">
+        <v>864</v>
+      </c>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
     </row>
@@ -8480,19 +8543,21 @@
       <c r="E56" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="F56" s="31" t="s">
+        <v>871</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="J56" s="8"/>
+      <c r="J56" s="3" t="s">
+        <v>438</v>
+      </c>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
     </row>
@@ -8502,8 +8567,8 @@
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="12"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
@@ -8526,10 +8591,10 @@
       <c r="E58" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="29" t="s">
         <v>151</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -8564,17 +8629,17 @@
       <c r="E59" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="30">
         <v>1500</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="30" t="s">
         <v>65</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>167</v>
@@ -8583,7 +8648,7 @@
         <v>68</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8594,25 +8659,25 @@
         <v>265</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="30">
         <v>9000</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="30" t="s">
         <v>195</v>
       </c>
       <c r="H60" s="3">
         <v>137</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="J60" s="11" t="s">
         <v>164</v>
@@ -8621,7 +8686,7 @@
         <v>69</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8635,24 +8700,26 @@
         <v>233</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="F64" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F64" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="25" t="s">
+        <v>863</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="J64" s="8"/>
+      <c r="J64" s="1" t="s">
+        <v>864</v>
+      </c>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
     </row>
@@ -8672,19 +8739,21 @@
       <c r="E65" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="F65" s="31" t="s">
+        <v>872</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>831</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="J65" s="8"/>
+      <c r="J65" s="3" t="s">
+        <v>439</v>
+      </c>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
     </row>
@@ -8694,8 +8763,8 @@
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
       <c r="H66" s="12"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
@@ -8718,10 +8787,10 @@
       <c r="E67" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G67" s="29" t="s">
         <v>151</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -8756,17 +8825,17 @@
       <c r="E68" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="30">
         <v>1500</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="G68" s="30" t="s">
         <v>65</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J68" s="11" t="s">
         <v>167</v>
@@ -8775,7 +8844,7 @@
         <v>68</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -8786,25 +8855,25 @@
         <v>265</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="30">
         <v>9000</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G69" s="30" t="s">
         <v>195</v>
       </c>
       <c r="H69" s="3">
         <v>138</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J69" s="11" t="s">
         <v>164</v>
@@ -8813,7 +8882,7 @@
         <v>69</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -12149,7 +12218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA0C999-B51D-B945-AD16-6B65491DFEFD}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>

--- a/ExPECA-HW-Discovery.xlsx
+++ b/ExPECA-HW-Discovery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmos/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ug.kth.se\dfs\home\s\t\steron\appdata\xp.V2\Documents\expeca\lab-inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B66A220-E990-0545-A4A3-890A55C692B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161374DA-6AE5-4D2E-936D-9D25E1890C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Telenor Network" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="891">
   <si>
     <t>Dell PowerEdge R750xs</t>
   </si>
@@ -2651,13 +2651,67 @@
   </si>
   <si>
     <t>999080000000005</t>
+  </si>
+  <si>
+    <t>worker-21</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4</t>
+  </si>
+  <si>
+    <t>Broadcom BCM2711 @ 1.5 GHz</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>8 GB</t>
+  </si>
+  <si>
+    <t>64 GB microSD</t>
+  </si>
+  <si>
+    <t>te1/0/25</t>
+  </si>
+  <si>
+    <t>dc:a6:32:bf:52:b0</t>
+  </si>
+  <si>
+    <t>Broadcom GENET (BCM54213) 1-port Gigabit Ethernet</t>
+  </si>
+  <si>
+    <t>enx000acd47c9fc</t>
+  </si>
+  <si>
+    <t>enx000acd47cdaf</t>
+  </si>
+  <si>
+    <t>enx000acd47cdb0</t>
+  </si>
+  <si>
+    <t>00:0a:cd:47:c9:fc</t>
+  </si>
+  <si>
+    <t>00:0a:cd:47:cd:af</t>
+  </si>
+  <si>
+    <t>00:0a:cd:47:cd:b0</t>
+  </si>
+  <si>
+    <t>te3/0/5</t>
+  </si>
+  <si>
+    <t>te4/0/4</t>
+  </si>
+  <si>
+    <t>ASIX AX88179 (StarTech USB32000SPT) 1-port Gigabit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3228,20 +3282,20 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="24.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="25.5" style="2" customWidth="1"/>
-    <col min="8" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" customWidth="1"/>
-    <col min="12" max="12" width="61.33203125" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="25.42578125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3258,7 +3312,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>468</v>
       </c>
@@ -3275,7 +3329,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>241</v>
       </c>
@@ -3313,7 +3367,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>272</v>
       </c>
@@ -3365,21 +3419,21 @@
       <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="25.5" style="2" customWidth="1"/>
-    <col min="8" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" customWidth="1"/>
-    <col min="12" max="12" width="61.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="25.42578125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3396,7 +3450,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="30">
       <c r="A2" s="3" t="s">
         <v>464</v>
       </c>
@@ -3413,7 +3467,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>241</v>
       </c>
@@ -3451,7 +3505,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>471</v>
       </c>
@@ -3503,21 +3557,21 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="25.5" style="2" customWidth="1"/>
-    <col min="8" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" customWidth="1"/>
-    <col min="12" max="12" width="61.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="25.42578125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="30">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3532,7 +3586,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="30">
       <c r="A2" s="3" t="s">
         <v>460</v>
       </c>
@@ -3547,7 +3601,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>241</v>
       </c>
@@ -3585,7 +3639,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>242</v>
       </c>
@@ -3623,7 +3677,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
         <v>243</v>
       </c>
@@ -3671,25 +3725,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DF0E2B-725B-3247-9FD1-11D5F10AA821}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="106" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="25.5" style="2" customWidth="1"/>
-    <col min="8" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" customWidth="1"/>
-    <col min="12" max="12" width="61.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="25.42578125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3712,7 +3766,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>231</v>
       </c>
@@ -3735,7 +3789,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>241</v>
       </c>
@@ -3773,7 +3827,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="30">
       <c r="A5" s="4" t="s">
         <v>242</v>
       </c>
@@ -3811,7 +3865,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
         <v>243</v>
       </c>
@@ -3849,7 +3903,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30">
       <c r="A7" s="4" t="s">
         <v>244</v>
       </c>
@@ -3887,7 +3941,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3910,7 +3964,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
         <v>252</v>
       </c>
@@ -3933,7 +3987,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>241</v>
       </c>
@@ -3971,7 +4025,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="30">
       <c r="A15" s="4" t="s">
         <v>242</v>
       </c>
@@ -4009,7 +4063,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
         <v>243</v>
       </c>
@@ -4047,7 +4101,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="30">
       <c r="A17" s="4" t="s">
         <v>244</v>
       </c>
@@ -4085,10 +4139,10 @@
         <v>413</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="16.5">
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -4111,7 +4165,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="3" t="s">
         <v>253</v>
       </c>
@@ -4134,7 +4188,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>241</v>
       </c>
@@ -4172,7 +4226,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="30">
       <c r="A25" s="4" t="s">
         <v>242</v>
       </c>
@@ -4210,7 +4264,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="4" t="s">
         <v>243</v>
       </c>
@@ -4248,7 +4302,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="30">
       <c r="A27" s="4" t="s">
         <v>244</v>
       </c>
@@ -4286,7 +4340,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" s="6" t="s">
         <v>10</v>
       </c>
@@ -4314,7 +4368,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="9" t="s">
         <v>254</v>
       </c>
@@ -4340,7 +4394,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -4354,7 +4408,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" s="6" t="s">
         <v>241</v>
       </c>
@@ -4392,7 +4446,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="30">
       <c r="A35" s="4" t="s">
         <v>242</v>
       </c>
@@ -4430,7 +4484,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36" s="4" t="s">
         <v>243</v>
       </c>
@@ -4468,7 +4522,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="30">
       <c r="A37" s="4" t="s">
         <v>244</v>
       </c>
@@ -4506,7 +4560,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" s="6" t="s">
         <v>10</v>
       </c>
@@ -4532,7 +4586,7 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="A42" s="9" t="s">
         <v>255</v>
       </c>
@@ -4560,7 +4614,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -4574,7 +4628,7 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="A44" s="6" t="s">
         <v>241</v>
       </c>
@@ -4612,7 +4666,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="30">
       <c r="A45" s="4" t="s">
         <v>242</v>
       </c>
@@ -4650,7 +4704,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46" s="4" t="s">
         <v>243</v>
       </c>
@@ -4688,7 +4742,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="30">
       <c r="A47" s="4" t="s">
         <v>244</v>
       </c>
@@ -4726,7 +4780,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51" s="6" t="s">
         <v>10</v>
       </c>
@@ -4752,7 +4806,7 @@
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="A52" s="9" t="s">
         <v>256</v>
       </c>
@@ -4780,7 +4834,7 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -4794,7 +4848,7 @@
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12">
       <c r="A54" s="6" t="s">
         <v>241</v>
       </c>
@@ -4832,7 +4886,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="30">
       <c r="A55" s="4" t="s">
         <v>242</v>
       </c>
@@ -4870,7 +4924,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12">
       <c r="A56" s="4" t="s">
         <v>243</v>
       </c>
@@ -4908,7 +4962,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="30">
       <c r="A57" s="4" t="s">
         <v>244</v>
       </c>
@@ -4946,7 +5000,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12">
       <c r="A61" s="6" t="s">
         <v>10</v>
       </c>
@@ -4972,7 +5026,7 @@
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
     </row>
-    <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12">
       <c r="A62" s="9" t="s">
         <v>257</v>
       </c>
@@ -5000,7 +5054,7 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -5014,7 +5068,7 @@
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
     </row>
-    <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64" s="6" t="s">
         <v>241</v>
       </c>
@@ -5052,7 +5106,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="30">
       <c r="A65" s="4" t="s">
         <v>242</v>
       </c>
@@ -5090,7 +5144,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12">
       <c r="A66" s="4" t="s">
         <v>243</v>
       </c>
@@ -5128,7 +5182,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="30">
       <c r="A67" s="4" t="s">
         <v>244</v>
       </c>
@@ -5166,7 +5220,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12">
       <c r="A71" s="6" t="s">
         <v>10</v>
       </c>
@@ -5192,7 +5246,7 @@
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
     </row>
-    <row r="72" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12">
       <c r="A72" s="9" t="s">
         <v>258</v>
       </c>
@@ -5218,7 +5272,7 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -5232,7 +5286,7 @@
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
     </row>
-    <row r="74" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12">
       <c r="A74" s="6" t="s">
         <v>241</v>
       </c>
@@ -5270,7 +5324,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="30">
       <c r="A75" s="4" t="s">
         <v>242</v>
       </c>
@@ -5308,7 +5362,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12">
       <c r="A76" s="4" t="s">
         <v>243</v>
       </c>
@@ -5346,7 +5400,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="30">
       <c r="A77" s="4" t="s">
         <v>244</v>
       </c>
@@ -5384,7 +5438,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12">
       <c r="A81" s="6" t="s">
         <v>10</v>
       </c>
@@ -5410,7 +5464,7 @@
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
     </row>
-    <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12">
       <c r="A82" s="9" t="s">
         <v>259</v>
       </c>
@@ -5438,7 +5492,7 @@
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -5452,7 +5506,7 @@
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
     </row>
-    <row r="84" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12">
       <c r="A84" s="6" t="s">
         <v>241</v>
       </c>
@@ -5490,7 +5544,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="30">
       <c r="A85" s="4" t="s">
         <v>242</v>
       </c>
@@ -5528,7 +5582,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12">
       <c r="A86" s="4" t="s">
         <v>243</v>
       </c>
@@ -5566,7 +5620,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="30">
       <c r="A87" s="4" t="s">
         <v>244</v>
       </c>
@@ -5604,7 +5658,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12">
       <c r="A91" s="6" t="s">
         <v>10</v>
       </c>
@@ -5630,7 +5684,7 @@
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
     </row>
-    <row r="92" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12">
       <c r="A92" s="9" t="s">
         <v>260</v>
       </c>
@@ -5656,7 +5710,7 @@
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -5670,7 +5724,7 @@
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
     </row>
-    <row r="94" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12">
       <c r="A94" s="6" t="s">
         <v>241</v>
       </c>
@@ -5708,7 +5762,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="30">
       <c r="A95" s="4" t="s">
         <v>242</v>
       </c>
@@ -5746,7 +5800,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12">
       <c r="A96" s="4" t="s">
         <v>243</v>
       </c>
@@ -5784,7 +5838,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="30">
       <c r="A97" s="4" t="s">
         <v>244</v>
       </c>
@@ -5836,18 +5890,18 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="26" style="19" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="11.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.33203125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="43.1640625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="19"/>
+    <col min="5" max="5" width="23.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="11.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.28515625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="43.140625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="18.75">
       <c r="A1" s="22" t="s">
         <v>840</v>
       </c>
@@ -5917,7 +5971,7 @@
       <c r="W1" s="21"/>
       <c r="X1" s="21"/>
     </row>
-    <row r="2" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="112.5">
       <c r="A2" s="23" t="s">
         <v>852</v>
       </c>
@@ -5987,7 +6041,7 @@
       <c r="W2" s="21"/>
       <c r="X2" s="21"/>
     </row>
-    <row r="3" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="112.5">
       <c r="A3" s="23" t="s">
         <v>851</v>
       </c>
@@ -6057,7 +6111,7 @@
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
     </row>
-    <row r="4" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="112.5">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -6121,7 +6175,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
     </row>
-    <row r="5" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="112.5">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -6185,7 +6239,7 @@
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
     </row>
-    <row r="6" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="112.5">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -6249,7 +6303,7 @@
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
     </row>
-    <row r="7" spans="1:24" ht="80" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="112.5">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -6313,7 +6367,7 @@
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
     </row>
-    <row r="8" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="112.5">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -6377,7 +6431,7 @@
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
     </row>
-    <row r="9" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="112.5">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -6441,7 +6495,7 @@
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
     </row>
-    <row r="10" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="112.5">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -6505,7 +6559,7 @@
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
     </row>
-    <row r="11" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="112.5">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -6569,7 +6623,7 @@
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
     </row>
-    <row r="12" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="112.5">
       <c r="A12" s="23" t="s">
         <v>850</v>
       </c>
@@ -6639,7 +6693,7 @@
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
     </row>
-    <row r="13" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="112.5">
       <c r="A13" s="23" t="s">
         <v>849</v>
       </c>
@@ -6709,7 +6763,7 @@
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
     </row>
-    <row r="14" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="112.5">
       <c r="A14" s="23" t="s">
         <v>848</v>
       </c>
@@ -6779,7 +6833,7 @@
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
     </row>
-    <row r="15" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="112.5">
       <c r="A15" s="23" t="s">
         <v>847</v>
       </c>
@@ -6849,7 +6903,7 @@
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
     </row>
-    <row r="16" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="112.5">
       <c r="A16" s="23" t="s">
         <v>846</v>
       </c>
@@ -6919,7 +6973,7 @@
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
     </row>
-    <row r="17" spans="1:24" ht="80" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="112.5">
       <c r="A17" s="23" t="s">
         <v>845</v>
       </c>
@@ -6989,7 +7043,7 @@
       <c r="W17" s="21"/>
       <c r="X17" s="21"/>
     </row>
-    <row r="18" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="112.5">
       <c r="A18" s="23" t="s">
         <v>844</v>
       </c>
@@ -7059,7 +7113,7 @@
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
     </row>
-    <row r="19" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="112.5">
       <c r="A19" s="23" t="s">
         <v>843</v>
       </c>
@@ -7129,7 +7183,7 @@
       <c r="W19" s="21"/>
       <c r="X19" s="21"/>
     </row>
-    <row r="20" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="112.5">
       <c r="A20" s="23" t="s">
         <v>842</v>
       </c>
@@ -7199,7 +7253,7 @@
       <c r="W20" s="21"/>
       <c r="X20" s="21"/>
     </row>
-    <row r="21" spans="1:24" ht="100" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="112.5">
       <c r="A21" s="23" t="s">
         <v>841</v>
       </c>
@@ -7269,7 +7323,7 @@
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
     </row>
-    <row r="22" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="18.75">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -7295,7 +7349,7 @@
       <c r="W22" s="21"/>
       <c r="X22" s="21"/>
     </row>
-    <row r="23" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="18.75">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -7330,26 +7384,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026BCBCE-4CBD-7246-9A76-5F67393CE992}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="19" customWidth="1"/>
-    <col min="8" max="9" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="19" customWidth="1"/>
+    <col min="8" max="9" width="17.85546875" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="56.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -7381,7 +7435,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>266</v>
       </c>
@@ -7413,7 +7467,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -7423,7 +7477,7 @@
       <c r="G3" s="27"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30">
       <c r="A4" s="1" t="s">
         <v>241</v>
       </c>
@@ -7461,7 +7515,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>271</v>
       </c>
@@ -7499,7 +7553,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
         <v>272</v>
       </c>
@@ -7537,7 +7591,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -7569,7 +7623,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
         <v>276</v>
       </c>
@@ -7601,7 +7655,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -7611,7 +7665,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="30">
       <c r="A13" s="1" t="s">
         <v>241</v>
       </c>
@@ -7649,7 +7703,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
         <v>271</v>
       </c>
@@ -7687,7 +7741,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
         <v>272</v>
       </c>
@@ -7725,7 +7779,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -7757,7 +7811,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
         <v>277</v>
       </c>
@@ -7789,7 +7843,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7799,7 +7853,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="30">
       <c r="A22" s="1" t="s">
         <v>241</v>
       </c>
@@ -7837,7 +7891,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
         <v>271</v>
       </c>
@@ -7875,7 +7929,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="4" t="s">
         <v>272</v>
       </c>
@@ -7913,7 +7967,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -7945,7 +7999,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
         <v>278</v>
       </c>
@@ -7977,7 +8031,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -7987,7 +8041,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="30">
       <c r="A31" s="1" t="s">
         <v>241</v>
       </c>
@@ -8025,7 +8079,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="4" t="s">
         <v>271</v>
       </c>
@@ -8063,7 +8117,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="4" t="s">
         <v>272</v>
       </c>
@@ -8101,7 +8155,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37" s="6" t="s">
         <v>10</v>
       </c>
@@ -8135,7 +8189,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" s="9" t="s">
         <v>279</v>
       </c>
@@ -8169,7 +8223,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -8183,7 +8237,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="30">
       <c r="A40" s="6" t="s">
         <v>241</v>
       </c>
@@ -8221,7 +8275,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" s="13" t="s">
         <v>271</v>
       </c>
@@ -8259,7 +8313,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="A42" s="13" t="s">
         <v>272</v>
       </c>
@@ -8297,7 +8351,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46" s="6" t="s">
         <v>10</v>
       </c>
@@ -8331,7 +8385,7 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47" s="9" t="s">
         <v>280</v>
       </c>
@@ -8365,7 +8419,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -8379,7 +8433,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="30">
       <c r="A49" s="6" t="s">
         <v>241</v>
       </c>
@@ -8417,7 +8471,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="A50" s="13" t="s">
         <v>271</v>
       </c>
@@ -8455,7 +8509,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51" s="13" t="s">
         <v>272</v>
       </c>
@@ -8493,7 +8547,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12">
       <c r="A55" s="6" t="s">
         <v>10</v>
       </c>
@@ -8527,7 +8581,7 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12">
       <c r="A56" s="9" t="s">
         <v>281</v>
       </c>
@@ -8561,7 +8615,7 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -8575,7 +8629,7 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="30">
       <c r="A58" s="6" t="s">
         <v>241</v>
       </c>
@@ -8613,7 +8667,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="A59" s="13" t="s">
         <v>271</v>
       </c>
@@ -8651,7 +8705,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12">
       <c r="A60" s="13" t="s">
         <v>272</v>
       </c>
@@ -8689,7 +8743,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64" s="6" t="s">
         <v>10</v>
       </c>
@@ -8723,7 +8777,7 @@
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12">
       <c r="A65" s="9" t="s">
         <v>282</v>
       </c>
@@ -8757,7 +8811,7 @@
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -8771,7 +8825,7 @@
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
     </row>
-    <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="30">
       <c r="A67" s="6" t="s">
         <v>241</v>
       </c>
@@ -8809,7 +8863,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12">
       <c r="A68" s="13" t="s">
         <v>271</v>
       </c>
@@ -8847,7 +8901,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12">
       <c r="A69" s="13" t="s">
         <v>272</v>
       </c>
@@ -8892,26 +8946,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAF93FA-38E5-45F4-AB60-57ED3B3EDFB0}">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -8934,7 +8988,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -8957,7 +9011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -8986,7 +9040,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -9015,7 +9069,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -9044,7 +9098,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -9073,7 +9127,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
@@ -9102,7 +9156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -9131,7 +9185,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -9160,7 +9214,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -9189,7 +9243,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -9218,7 +9272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
@@ -9247,7 +9301,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -9270,7 +9324,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="30">
       <c r="A18" s="3" t="s">
         <v>228</v>
       </c>
@@ -9293,7 +9347,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -9322,7 +9376,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -9351,7 +9405,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
@@ -9380,7 +9434,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
@@ -9409,7 +9463,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
@@ -9438,7 +9492,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
@@ -9467,7 +9521,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="30">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -9496,7 +9550,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="30">
       <c r="A27" s="4" t="s">
         <v>38</v>
       </c>
@@ -9525,7 +9579,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
         <v>48</v>
       </c>
@@ -9554,7 +9608,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
         <v>48</v>
       </c>
@@ -9583,7 +9637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>41</v>
       </c>
@@ -9612,7 +9666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
@@ -9641,7 +9695,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -9664,7 +9718,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="30">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
@@ -9687,7 +9741,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -9716,7 +9770,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
@@ -9745,7 +9799,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
         <v>33</v>
       </c>
@@ -9774,7 +9828,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
         <v>33</v>
       </c>
@@ -9803,7 +9857,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
@@ -9832,7 +9886,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -9861,7 +9915,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44" s="4" t="s">
         <v>38</v>
       </c>
@@ -9890,7 +9944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="4" t="s">
         <v>38</v>
       </c>
@@ -9919,7 +9973,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
@@ -9948,7 +10002,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
@@ -9977,7 +10031,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
         <v>41</v>
       </c>
@@ -10006,7 +10060,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
@@ -10035,7 +10089,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
@@ -10058,7 +10112,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="30">
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
@@ -10081,7 +10135,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>15</v>
       </c>
@@ -10110,7 +10164,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
         <v>33</v>
       </c>
@@ -10139,7 +10193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
         <v>33</v>
       </c>
@@ -10168,7 +10222,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
         <v>33</v>
       </c>
@@ -10197,7 +10251,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
         <v>41</v>
       </c>
@@ -10226,7 +10280,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
         <v>41</v>
       </c>
@@ -10255,7 +10309,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="30">
       <c r="A62" s="4" t="s">
         <v>38</v>
       </c>
@@ -10284,7 +10338,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="30">
       <c r="A63" s="4" t="s">
         <v>38</v>
       </c>
@@ -10313,7 +10367,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
         <v>48</v>
       </c>
@@ -10342,7 +10396,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
         <v>48</v>
       </c>
@@ -10371,7 +10425,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
         <v>41</v>
       </c>
@@ -10400,7 +10454,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
         <v>41</v>
       </c>
@@ -10429,7 +10483,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
@@ -10452,7 +10506,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="3" t="s">
         <v>8</v>
       </c>
@@ -10475,7 +10529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
         <v>15</v>
       </c>
@@ -10504,7 +10558,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="4" t="s">
         <v>33</v>
       </c>
@@ -10533,7 +10587,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="4" t="s">
         <v>33</v>
       </c>
@@ -10562,7 +10616,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="4" t="s">
         <v>33</v>
       </c>
@@ -10591,7 +10645,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="4" t="s">
         <v>41</v>
       </c>
@@ -10620,7 +10674,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="4" t="s">
         <v>41</v>
       </c>
@@ -10649,7 +10703,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="15.95" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>42</v>
       </c>
@@ -10678,7 +10732,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="15.95" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>42</v>
       </c>
@@ -10707,7 +10761,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
         <v>10</v>
       </c>
@@ -10730,7 +10784,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="30">
       <c r="A86" s="3" t="s">
         <v>229</v>
       </c>
@@ -10753,7 +10807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
         <v>15</v>
       </c>
@@ -10782,7 +10836,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" s="4" t="s">
         <v>33</v>
       </c>
@@ -10811,7 +10865,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" s="4" t="s">
         <v>33</v>
       </c>
@@ -10840,7 +10894,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91" s="4" t="s">
         <v>33</v>
       </c>
@@ -10869,7 +10923,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" s="4" t="s">
         <v>36</v>
       </c>
@@ -10898,7 +10952,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93" s="4" t="s">
         <v>36</v>
       </c>
@@ -10927,7 +10981,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="15.95" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>38</v>
       </c>
@@ -10956,7 +11010,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="15.95" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>38</v>
       </c>
@@ -10985,7 +11039,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
@@ -11008,7 +11062,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="15.95" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>9</v>
       </c>
@@ -11031,7 +11085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
         <v>15</v>
       </c>
@@ -11060,7 +11114,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" s="4" t="s">
         <v>33</v>
       </c>
@@ -11087,7 +11141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104" s="4" t="s">
         <v>33</v>
       </c>
@@ -11116,7 +11170,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105" s="4" t="s">
         <v>33</v>
       </c>
@@ -11145,7 +11199,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106" s="4" t="s">
         <v>32</v>
       </c>
@@ -11174,7 +11228,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107" s="4" t="s">
         <v>33</v>
       </c>
@@ -11203,7 +11257,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="A108" s="4" t="s">
         <v>33</v>
       </c>
@@ -11232,7 +11286,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9">
       <c r="A109" s="4" t="s">
         <v>33</v>
       </c>
@@ -11261,7 +11315,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="A110" s="4" t="s">
         <v>33</v>
       </c>
@@ -11290,7 +11344,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="s">
         <v>10</v>
       </c>
@@ -11313,7 +11367,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="15.95" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>21</v>
       </c>
@@ -11336,7 +11390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="s">
         <v>15</v>
       </c>
@@ -11365,7 +11419,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9">
       <c r="A118" s="4" t="s">
         <v>33</v>
       </c>
@@ -11392,7 +11446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9">
       <c r="A119" s="4" t="s">
         <v>33</v>
       </c>
@@ -11421,7 +11475,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9">
       <c r="A120" s="4" t="s">
         <v>33</v>
       </c>
@@ -11450,7 +11504,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9">
       <c r="A121" s="4" t="s">
         <v>32</v>
       </c>
@@ -11479,7 +11533,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9">
       <c r="A122" s="4" t="s">
         <v>33</v>
       </c>
@@ -11508,7 +11562,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9">
       <c r="A123" s="4" t="s">
         <v>33</v>
       </c>
@@ -11537,7 +11591,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9">
       <c r="A124" s="4" t="s">
         <v>33</v>
       </c>
@@ -11566,7 +11620,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9">
       <c r="A125" s="4" t="s">
         <v>33</v>
       </c>
@@ -11595,7 +11649,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="s">
         <v>10</v>
       </c>
@@ -11618,7 +11672,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="15.95" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>22</v>
       </c>
@@ -11641,7 +11695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="s">
         <v>15</v>
       </c>
@@ -11670,7 +11724,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9">
       <c r="A133" s="4" t="s">
         <v>33</v>
       </c>
@@ -11697,7 +11751,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9">
       <c r="A134" s="4" t="s">
         <v>33</v>
       </c>
@@ -11726,7 +11780,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9">
       <c r="A135" s="4" t="s">
         <v>33</v>
       </c>
@@ -11755,7 +11809,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9">
       <c r="A136" s="4" t="s">
         <v>32</v>
       </c>
@@ -11784,7 +11838,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9">
       <c r="A137" s="4" t="s">
         <v>33</v>
       </c>
@@ -11813,7 +11867,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9">
       <c r="A138" s="4" t="s">
         <v>33</v>
       </c>
@@ -11842,7 +11896,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9">
       <c r="A139" s="4" t="s">
         <v>33</v>
       </c>
@@ -11871,7 +11925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9">
       <c r="A140" s="4" t="s">
         <v>33</v>
       </c>
@@ -11900,7 +11954,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="s">
         <v>10</v>
       </c>
@@ -11923,7 +11977,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="15.95" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>23</v>
       </c>
@@ -11946,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="s">
         <v>15</v>
       </c>
@@ -11975,7 +12029,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="15.95" customHeight="1">
       <c r="A148" s="4" t="s">
         <v>33</v>
       </c>
@@ -12002,7 +12056,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="15.95" customHeight="1">
       <c r="A149" s="4" t="s">
         <v>33</v>
       </c>
@@ -12031,7 +12085,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="15.95" customHeight="1">
       <c r="A150" s="4" t="s">
         <v>33</v>
       </c>
@@ -12060,7 +12114,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="15.95" customHeight="1">
       <c r="A151" s="4" t="s">
         <v>32</v>
       </c>
@@ -12089,7 +12143,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="15.95" customHeight="1">
       <c r="A152" s="4" t="s">
         <v>33</v>
       </c>
@@ -12118,7 +12172,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="15.95" customHeight="1">
       <c r="A153" s="4" t="s">
         <v>33</v>
       </c>
@@ -12147,7 +12201,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="15.95" customHeight="1">
       <c r="A154" s="4" t="s">
         <v>33</v>
       </c>
@@ -12176,7 +12230,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="15.95" customHeight="1">
       <c r="A155" s="4" t="s">
         <v>33</v>
       </c>
@@ -12203,6 +12257,197 @@
       </c>
       <c r="I155" s="3" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A160" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="D160" s="4">
+        <v>4</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A163" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E163" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A164" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E164" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A165" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E165" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A166" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -12222,20 +12467,20 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -12258,7 +12503,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="3" t="s">
         <v>156</v>
       </c>
@@ -12281,7 +12526,7 @@
         <v>12.13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -12310,7 +12555,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -12337,7 +12582,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -12366,7 +12611,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -12395,7 +12640,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -12424,7 +12669,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
